--- a/PRUEBA.xlsx
+++ b/PRUEBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9c7db393410a0e1/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{B48EAC58-9B7D-4E80-8899-08CE2929E675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A02ECCDA-0FAD-481C-90BA-876B8CE28093}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{B48EAC58-9B7D-4E80-8899-08CE2929E675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14E3E333-103F-4C06-8FCE-B3BAC8728269}"/>
   <bookViews>
-    <workbookView xWindow="504" yWindow="1584" windowWidth="12624" windowHeight="10524" xr2:uid="{89B8ABE8-3403-4683-9B1D-5A15CBE66AC0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89B8ABE8-3403-4683-9B1D-5A15CBE66AC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="625">
   <si>
-    <t>CÓDIGO</t>
-  </si>
-  <si>
     <t>NOMBRE</t>
   </si>
   <si>
@@ -1911,6 +1908,9 @@
   </si>
   <si>
     <t>PRECIO</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
   </si>
 </sst>
 </file>
@@ -2358,7 +2358,7 @@
   <dimension ref="A1:D316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2370,16 +2370,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2387,7 +2387,7 @@
         <v>109120104</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5">
         <v>5.7</v>
@@ -2399,7 +2399,7 @@
         <v>109125050</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="8">
         <v>10.42</v>
@@ -2411,7 +2411,7 @@
         <v>109125051</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5">
         <v>2.2559999999999998</v>
@@ -2423,7 +2423,7 @@
         <v>109127001</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="8">
         <v>12.9411</v>
@@ -2435,7 +2435,7 @@
         <v>121651000</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5">
         <v>22.461600000000001</v>
@@ -2447,7 +2447,7 @@
         <v>2100201</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8">
         <v>16.0336</v>
@@ -2459,7 +2459,7 @@
         <v>2100205</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5">
         <v>2.1019999999999999</v>
@@ -2471,7 +2471,7 @@
         <v>2170012</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8">
         <v>5.5</v>
@@ -2483,7 +2483,7 @@
         <v>2170013</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5">
         <v>26</v>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C11" s="8">
         <v>19.21</v>
@@ -2504,10 +2504,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="C12" s="5">
         <v>20.957599999999999</v>
@@ -2515,10 +2515,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="C13" s="8">
         <v>18.595400000000001</v>
@@ -2526,10 +2526,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C14" s="5">
         <v>74.567599999999999</v>
@@ -2537,10 +2537,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="C15" s="8">
         <v>8.35</v>
@@ -2548,10 +2548,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="C16" s="5">
         <v>35.42</v>
@@ -2559,10 +2559,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="C17" s="8">
         <v>36</v>
@@ -2570,10 +2570,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="C18" s="5">
         <v>174.08</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="C19" s="8">
         <v>5.782</v>
@@ -2592,10 +2592,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="C20" s="5">
         <v>12.9</v>
@@ -2603,10 +2603,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="C21" s="8">
         <v>5.94</v>
@@ -2614,10 +2614,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C22" s="5">
         <v>28.82</v>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C23" s="8">
         <v>29.72</v>
@@ -2636,10 +2636,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C24" s="5">
         <v>14.188000000000001</v>
@@ -2647,10 +2647,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="C25" s="8">
         <v>0.65200000000000002</v>
@@ -2658,10 +2658,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="C26" s="5">
         <v>8.1839999999999993</v>
@@ -2669,10 +2669,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="C27" s="8">
         <v>1.522</v>
@@ -2680,10 +2680,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C28" s="5">
         <v>1.3148</v>
@@ -2691,10 +2691,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="C29" s="8">
         <v>1.04</v>
@@ -2702,10 +2702,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="C30" s="5">
         <v>1.94</v>
@@ -2713,10 +2713,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="C31" s="8">
         <v>0.90400000000000003</v>
@@ -2724,10 +2724,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="C32" s="5">
         <v>1.68</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="C33" s="8">
         <v>0.98</v>
@@ -2746,10 +2746,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="C34" s="5">
         <v>0.93400000000000005</v>
@@ -2757,10 +2757,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="C35" s="8">
         <v>1.6537999999999999</v>
@@ -2768,10 +2768,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="C36" s="5">
         <v>18.355</v>
@@ -2779,10 +2779,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="C37" s="8">
         <v>52.7</v>
@@ -2790,10 +2790,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="C38" s="5">
         <v>141.69999999999999</v>
@@ -2801,10 +2801,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="C39" s="8">
         <v>116.6</v>
@@ -2812,10 +2812,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="C40" s="5">
         <v>254.6</v>
@@ -2823,10 +2823,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="C41" s="8">
         <v>100.74</v>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="C42" s="5">
         <v>186.76</v>
@@ -2845,10 +2845,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="C43" s="8" t="e">
         <v>#N/A</v>
@@ -2856,10 +2856,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="C44" s="5">
         <v>9.282</v>
@@ -2867,10 +2867,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="C45" s="8">
         <v>13.5946</v>
@@ -2878,10 +2878,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="C46" s="5">
         <v>26.154199999999999</v>
@@ -2889,10 +2889,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="C47" s="8">
         <v>11.92</v>
@@ -2900,10 +2900,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="C48" s="5">
         <v>84.06</v>
@@ -2911,10 +2911,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="C49" s="8">
         <v>10.34</v>
@@ -2922,10 +2922,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="C50" s="5">
         <v>46.4</v>
@@ -2933,10 +2933,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="C51" s="8">
         <v>7.9184000000000001</v>
@@ -2944,10 +2944,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="C52" s="5">
         <v>1.5504</v>
@@ -2955,10 +2955,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="C53" s="8">
         <v>10.2508</v>
@@ -2966,10 +2966,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="C54" s="5">
         <v>5.4390000000000001</v>
@@ -2977,10 +2977,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="C55" s="8">
         <v>15.6</v>
@@ -2988,10 +2988,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="C56" s="5">
         <v>6.68</v>
@@ -2999,10 +2999,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="C57" s="8">
         <v>13.5</v>
@@ -3010,10 +3010,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="C58" s="5">
         <v>15.3736</v>
@@ -3021,10 +3021,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="C59" s="8">
         <v>80.400000000000006</v>
@@ -3032,10 +3032,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="C60" s="5">
         <v>13.7</v>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="C61" s="8">
         <v>51.96</v>
@@ -3054,10 +3054,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="C62" s="5">
         <v>46.898800000000001</v>
@@ -3065,10 +3065,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="C63" s="8">
         <v>63</v>
@@ -3076,10 +3076,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="C64" s="5">
         <v>101.9984</v>
@@ -3087,10 +3087,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="C65" s="8">
         <v>40.572000000000003</v>
@@ -3098,10 +3098,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="C66" s="5">
         <v>20.58</v>
@@ -3109,10 +3109,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="C67" s="8">
         <v>55.8</v>
@@ -3120,10 +3120,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="C68" s="5">
         <v>52.32</v>
@@ -3131,10 +3131,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="C69" s="8">
         <v>39.1</v>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="C70" s="5">
         <v>28.443999999999999</v>
@@ -3153,10 +3153,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="C71" s="8">
         <v>0.5</v>
@@ -3164,10 +3164,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="C72" s="5">
         <v>110.94</v>
@@ -3175,10 +3175,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="C73" s="8">
         <v>79.599999999999994</v>
@@ -3186,10 +3186,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="C74" s="5">
         <v>59.472000000000001</v>
@@ -3197,10 +3197,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="C75" s="8">
         <v>42.34</v>
@@ -3208,10 +3208,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="C76" s="5">
         <v>71.78</v>
@@ -3219,10 +3219,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="C77" s="8">
         <v>290</v>
@@ -3230,10 +3230,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="C78" s="5">
         <v>3.8</v>
@@ -3241,10 +3241,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="C79" s="8">
         <v>3.8</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="C80" s="5">
         <v>19.899999999999999</v>
@@ -3263,10 +3263,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="C81" s="8">
         <v>12</v>
@@ -3274,10 +3274,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="C82" s="5">
         <v>83.12</v>
@@ -3285,10 +3285,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="C83" s="8">
         <v>8.3000000000000007</v>
@@ -3296,10 +3296,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="C84" s="5">
         <v>3.9950000000000001</v>
@@ -3307,10 +3307,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="C85" s="8">
         <v>3.5920000000000001</v>
@@ -3318,10 +3318,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="C86" s="5">
         <v>34.379199999999997</v>
@@ -3329,10 +3329,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="C87" s="8">
         <v>24.444199999999999</v>
@@ -3340,10 +3340,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="C88" s="5">
         <v>12.9762</v>
@@ -3351,10 +3351,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="C89" s="8">
         <v>15.22</v>
@@ -3362,10 +3362,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="C90" s="5">
         <v>9.5648</v>
@@ -3373,10 +3373,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="C91" s="8">
         <v>75.239999999999995</v>
@@ -3384,10 +3384,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="C92" s="5">
         <v>47.92</v>
@@ -3395,10 +3395,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="C93" s="8">
         <v>5.2889999999999997</v>
@@ -3406,10 +3406,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="C94" s="5">
         <v>64.8</v>
@@ -3417,10 +3417,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="C95" s="8">
         <v>64</v>
@@ -3428,10 +3428,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="C96" s="5">
         <v>7747.3901999999998</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="C97" s="8">
         <v>65.3</v>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="C98" s="5">
         <v>56.06</v>
@@ -3461,10 +3461,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="C99" s="8">
         <v>54.28</v>
@@ -3472,10 +3472,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="C100" s="5">
         <v>104.34</v>
@@ -3483,10 +3483,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="C101" s="8">
         <v>0</v>
@@ -3494,10 +3494,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="C102" s="5">
         <v>112.28</v>
@@ -3505,10 +3505,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="C103" s="8">
         <v>47.78</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="C104" s="5">
         <v>25.38</v>
@@ -3527,10 +3527,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="C105" s="8">
         <v>13.53</v>
@@ -3538,10 +3538,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="C106" s="5">
         <v>1.476</v>
@@ -3549,10 +3549,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="C107" s="8">
         <v>88.44</v>
@@ -3560,10 +3560,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="C108" s="5">
         <v>2.3565999999999998</v>
@@ -3571,10 +3571,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="C109" s="8">
         <v>19.600000000000001</v>
@@ -3582,10 +3582,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="C110" s="5">
         <v>13.66</v>
@@ -3593,10 +3593,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="C111" s="8">
         <v>14.08</v>
@@ -3604,10 +3604,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="C112" s="5">
         <v>6.4337999999999997</v>
@@ -3615,10 +3615,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="C113" s="8">
         <v>9.8000000000000007</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="C114" s="5">
         <v>7.98</v>
@@ -3637,10 +3637,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="C115" s="8">
         <v>66</v>
@@ -3648,10 +3648,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="C116" s="5">
         <v>66</v>
@@ -3659,10 +3659,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="C117" s="8">
         <v>39.299999999999997</v>
@@ -3670,10 +3670,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="C118" s="5">
         <v>12.29</v>
@@ -3681,10 +3681,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="C119" s="8">
         <v>7.7862</v>
@@ -3692,10 +3692,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="C120" s="5">
         <v>35.04</v>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="C121" s="8">
         <v>8.1</v>
@@ -3714,10 +3714,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="C122" s="5">
         <v>26.444400000000002</v>
@@ -3725,10 +3725,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="C123" s="8">
         <v>2.2128000000000001</v>
@@ -3736,10 +3736,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="C124" s="5">
         <v>2.7734000000000001</v>
@@ -3747,10 +3747,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="C125" s="8">
         <v>10.221399999999999</v>
@@ -3758,10 +3758,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="C126" s="5">
         <v>29.62</v>
@@ -3769,10 +3769,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="C127" s="8">
         <v>62.52</v>
@@ -3780,10 +3780,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="C128" s="5">
         <v>13.3</v>
@@ -3791,10 +3791,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="C129" s="8">
         <v>9.8255999999999997</v>
@@ -3802,10 +3802,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="C130" s="5">
         <v>9.8255999999999997</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="C131" s="8">
         <v>2.36</v>
@@ -3824,10 +3824,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="C132" s="5">
         <v>27.92</v>
@@ -3835,10 +3835,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="C133" s="8">
         <v>11.92</v>
@@ -3846,10 +3846,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="C134" s="5">
         <v>2.84</v>
@@ -3857,10 +3857,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="C135" s="8">
         <v>6.4</v>
@@ -3868,10 +3868,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="C136" s="5">
         <v>9.8000000000000007</v>
@@ -3879,10 +3879,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="C137" s="8">
         <v>4.2</v>
@@ -3890,10 +3890,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="C138" s="5">
         <v>13.8</v>
@@ -3901,10 +3901,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="C139" s="8">
         <v>6.03</v>
@@ -3912,10 +3912,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="C140" s="5">
         <v>4.05</v>
@@ -3923,10 +3923,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="C141" s="8">
         <v>7.86</v>
@@ -3934,10 +3934,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="C142" s="5">
         <v>7.65</v>
@@ -3945,10 +3945,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="C143" s="8">
         <v>6.03</v>
@@ -3956,10 +3956,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="C144" s="5">
         <v>6.3</v>
@@ -3967,10 +3967,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="C145" s="8">
         <v>13.053599999999999</v>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="C146" s="5">
         <v>3.8635999999999999</v>
@@ -3989,10 +3989,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="C147" s="8">
         <v>6.3110999999999997</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="C148" s="5">
         <v>5.6890000000000001</v>
@@ -4011,10 +4011,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B149" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="C149" s="8">
         <v>21.16</v>
@@ -4022,10 +4022,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="C150" s="5">
         <v>5.4585999999999997</v>
@@ -4033,10 +4033,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B151" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="C151" s="8">
         <v>3.26</v>
@@ -4044,10 +4044,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="C152" s="5">
         <v>1.9141999999999999</v>
@@ -4055,10 +4055,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="C153" s="8">
         <v>9.0846</v>
@@ -4066,10 +4066,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="C154" s="5">
         <v>2.3382000000000001</v>
@@ -4077,10 +4077,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="C155" s="8">
         <v>3.58</v>
@@ -4088,10 +4088,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="C156" s="5">
         <v>2.4</v>
@@ -4099,10 +4099,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B157" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="C157" s="8">
         <v>4.3</v>
@@ -4110,10 +4110,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="C158" s="5">
         <v>5.3760000000000003</v>
@@ -4121,10 +4121,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B159" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="C159" s="8">
         <v>22.3</v>
@@ -4132,10 +4132,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="C160" s="5">
         <v>5</v>
@@ -4143,10 +4143,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B161" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="C161" s="8">
         <v>6.38</v>
@@ -4154,10 +4154,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="C162" s="5">
         <v>4.4683999999999999</v>
@@ -4165,10 +4165,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B163" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="C163" s="8">
         <v>3.4</v>
@@ -4176,10 +4176,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="C164" s="5">
         <v>1.9119999999999999</v>
@@ -4187,10 +4187,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B165" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="C165" s="8">
         <v>1.992</v>
@@ -4198,10 +4198,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="C166" s="5">
         <v>2.0424000000000002</v>
@@ -4209,10 +4209,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B167" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="C167" s="8">
         <v>76.38</v>
@@ -4220,10 +4220,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="C168" s="5">
         <v>5.1547999999999998</v>
@@ -4231,10 +4231,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="C169" s="8">
         <v>1.0975999999999999</v>
@@ -4242,10 +4242,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>331</v>
       </c>
       <c r="C170" s="5">
         <v>2.58</v>
@@ -4253,10 +4253,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="C171" s="8">
         <v>10.221399999999999</v>
@@ -4264,10 +4264,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="C172" s="5">
         <v>2.5912000000000002</v>
@@ -4275,10 +4275,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="C173" s="8">
         <v>10.92</v>
@@ -4286,10 +4286,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B174" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="C174" s="5">
         <v>21.814800000000002</v>
@@ -4297,10 +4297,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B175" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="C175" s="8">
         <v>42.767200000000003</v>
@@ -4308,10 +4308,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="C176" s="5">
         <v>9.43</v>
@@ -4319,10 +4319,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B177" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="C177" s="8">
         <v>62.052</v>
@@ -4330,10 +4330,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="C178" s="5">
         <v>19.600000000000001</v>
@@ -4341,10 +4341,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B179" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="C179" s="8">
         <v>19.3492</v>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="C180" s="5">
         <v>31.59</v>
@@ -4363,10 +4363,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B181" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="C181" s="8">
         <v>41.515999999999998</v>
@@ -4374,10 +4374,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="C182" s="5">
         <v>9.4372000000000007</v>
@@ -4385,10 +4385,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B183" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="C183" s="8">
         <v>6</v>
@@ -4396,10 +4396,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="C184" s="5">
         <v>24.72</v>
@@ -4407,10 +4407,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B185" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="C185" s="8">
         <v>20.7</v>
@@ -4418,10 +4418,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="C186" s="5">
         <v>15.3</v>
@@ -4429,10 +4429,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B187" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="C187" s="8">
         <v>128.46</v>
@@ -4440,10 +4440,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="C188" s="5">
         <v>39.160800000000002</v>
@@ -4451,10 +4451,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B189" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="C189" s="8">
         <v>16.21</v>
@@ -4462,10 +4462,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="C190" s="5">
         <v>7.97</v>
@@ -4473,10 +4473,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B191" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="C191" s="8">
         <v>34.983800000000002</v>
@@ -4484,10 +4484,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="C192" s="5">
         <v>73.06</v>
@@ -4495,10 +4495,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B193" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="C193" s="8">
         <v>35.46</v>
@@ -4506,10 +4506,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="C194" s="5">
         <v>2.6920000000000002</v>
@@ -4517,10 +4517,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B195" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="C195" s="8">
         <v>4.2480000000000002</v>
@@ -4528,10 +4528,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B196" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="C196" s="5">
         <v>2.6928000000000001</v>
@@ -4539,10 +4539,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B197" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="C197" s="8">
         <v>7.0995999999999997</v>
@@ -4550,10 +4550,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="C198" s="5">
         <v>2.6928000000000001</v>
@@ -4561,10 +4561,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B199" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="C199" s="8">
         <v>2.3199999999999998</v>
@@ -4572,10 +4572,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>391</v>
       </c>
       <c r="C200" s="5">
         <v>4.2480000000000002</v>
@@ -4583,10 +4583,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B201" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="C201" s="8">
         <v>3.6415999999999999</v>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B202" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>395</v>
       </c>
       <c r="C202" s="5">
         <v>3.4283999999999999</v>
@@ -4605,10 +4605,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B203" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="C203" s="8">
         <v>3.0674000000000001</v>
@@ -4616,10 +4616,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B204" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="C204" s="5">
         <v>9.86</v>
@@ -4627,10 +4627,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B205" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="C205" s="8">
         <v>16.767800000000001</v>
@@ -4638,10 +4638,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="C206" s="5">
         <v>10.52</v>
@@ -4649,10 +4649,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B207" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="C207" s="8">
         <v>4.0999999999999996</v>
@@ -4660,10 +4660,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B208" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>407</v>
       </c>
       <c r="C208" s="5">
         <v>1.9998</v>
@@ -4671,10 +4671,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B209" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="C209" s="8">
         <v>7.66</v>
@@ -4682,10 +4682,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B210" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>411</v>
       </c>
       <c r="C210" s="5">
         <v>7.66</v>
@@ -4693,10 +4693,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B211" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="C211" s="8">
         <v>14.92</v>
@@ -4704,10 +4704,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B212" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="C212" s="5">
         <v>33.868000000000002</v>
@@ -4715,10 +4715,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B213" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="C213" s="8">
         <v>4.1340000000000003</v>
@@ -4726,10 +4726,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>419</v>
       </c>
       <c r="C214" s="5">
         <v>42.990600000000001</v>
@@ -4737,10 +4737,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B215" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="C215" s="8">
         <v>38.514000000000003</v>
@@ -4748,10 +4748,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="C216" s="5">
         <v>55.34</v>
@@ -4759,10 +4759,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B217" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="C217" s="8">
         <v>44.42</v>
@@ -4770,10 +4770,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B218" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="C218" s="5">
         <v>69.5</v>
@@ -4781,10 +4781,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B219" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="C219" s="8">
         <v>103.04</v>
@@ -4792,10 +4792,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B220" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="C220" s="5">
         <v>48.2</v>
@@ -4803,10 +4803,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B221" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="C221" s="8">
         <v>60.68</v>
@@ -4814,10 +4814,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B222" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="C222" s="5">
         <v>173.52</v>
@@ -4825,10 +4825,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B223" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="C223" s="8">
         <v>681.6</v>
@@ -4836,10 +4836,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="C224" s="5">
         <v>29</v>
@@ -4847,10 +4847,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B225" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="C225" s="8">
         <v>61</v>
@@ -4858,10 +4858,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="C226" s="5">
         <v>2.62</v>
@@ -4869,10 +4869,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B227" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="C227" s="8">
         <v>63.28</v>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>447</v>
       </c>
       <c r="C228" s="5">
         <v>1.35</v>
@@ -4891,10 +4891,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B229" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="C229" s="8">
         <v>6.02</v>
@@ -4902,10 +4902,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B230" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>451</v>
       </c>
       <c r="C230" s="5">
         <v>6.4287999999999998</v>
@@ -4913,10 +4913,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B231" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="C231" s="8">
         <v>5.8</v>
@@ -4924,10 +4924,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B232" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="C232" s="5">
         <v>1.97</v>
@@ -4935,10 +4935,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B233" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="C233" s="8">
         <v>1.5696000000000001</v>
@@ -4946,10 +4946,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B234" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>459</v>
       </c>
       <c r="C234" s="5">
         <v>73.239999999999995</v>
@@ -4957,10 +4957,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B235" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="C235" s="8">
         <v>1.3498000000000001</v>
@@ -4968,10 +4968,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B236" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>463</v>
       </c>
       <c r="C236" s="5">
         <v>1.3498000000000001</v>
@@ -4979,10 +4979,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B237" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="C237" s="8">
         <v>1.3498000000000001</v>
@@ -4990,10 +4990,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B238" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>467</v>
       </c>
       <c r="C238" s="5">
         <v>1.56</v>
@@ -5001,10 +5001,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B239" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="C239" s="8">
         <v>1.88</v>
@@ -5012,10 +5012,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B240" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>471</v>
       </c>
       <c r="C240" s="5">
         <v>8.6</v>
@@ -5023,10 +5023,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B241" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="C241" s="8">
         <v>2.54</v>
@@ -5034,10 +5034,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B242" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="C242" s="5">
         <v>2.5339999999999998</v>
@@ -5045,10 +5045,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B243" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="B243" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="C243" s="8">
         <v>2.5339999999999998</v>
@@ -5056,10 +5056,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B244" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>479</v>
       </c>
       <c r="C244" s="5">
         <v>8.1433999999999997</v>
@@ -5067,10 +5067,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B245" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="B245" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="C245" s="8">
         <v>10.535</v>
@@ -5078,10 +5078,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>483</v>
       </c>
       <c r="C246" s="5">
         <v>8.4443999999999999</v>
@@ -5089,10 +5089,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B247" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="C247" s="8">
         <v>6.6</v>
@@ -5100,10 +5100,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>487</v>
       </c>
       <c r="C248" s="5">
         <v>3.92</v>
@@ -5111,10 +5111,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B249" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="B249" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="C249" s="8">
         <v>5.42</v>
@@ -5122,10 +5122,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B250" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>491</v>
       </c>
       <c r="C250" s="5">
         <v>1.8</v>
@@ -5133,10 +5133,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B251" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="B251" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="C251" s="8">
         <v>23.941400000000002</v>
@@ -5144,10 +5144,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B252" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="C252" s="5">
         <v>3.802</v>
@@ -5155,10 +5155,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B253" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="B253" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="C253" s="8">
         <v>6.3475999999999999</v>
@@ -5166,10 +5166,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B254" s="4" t="s">
         <v>498</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>499</v>
       </c>
       <c r="C254" s="5">
         <v>1.7</v>
@@ -5177,10 +5177,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B255" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="B255" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="C255" s="8">
         <v>2.4279999999999999</v>
@@ -5188,10 +5188,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>503</v>
       </c>
       <c r="C256" s="5">
         <v>91.16</v>
@@ -5199,10 +5199,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B257" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="B257" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="C257" s="8">
         <v>3.8239999999999998</v>
@@ -5210,10 +5210,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B258" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="C258" s="5">
         <v>10.48</v>
@@ -5221,10 +5221,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B259" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="B259" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="C259" s="8">
         <v>3.15</v>
@@ -5232,10 +5232,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>511</v>
       </c>
       <c r="C260" s="5">
         <v>3.0619999999999998</v>
@@ -5243,10 +5243,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B261" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="C261" s="8">
         <v>75.760000000000005</v>
@@ -5254,10 +5254,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B262" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>515</v>
       </c>
       <c r="C262" s="5">
         <v>43.793999999999997</v>
@@ -5265,10 +5265,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B263" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="B263" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="C263" s="8">
         <v>5.46</v>
@@ -5276,10 +5276,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B264" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>519</v>
       </c>
       <c r="C264" s="5">
         <v>8.06</v>
@@ -5287,10 +5287,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B265" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="B265" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="C265" s="8">
         <v>4.24</v>
@@ -5298,10 +5298,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B266" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>523</v>
       </c>
       <c r="C266" s="5">
         <v>11.04</v>
@@ -5309,10 +5309,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B267" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="B267" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="C267" s="8">
         <v>1.8129999999999999</v>
@@ -5320,10 +5320,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B268" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>527</v>
       </c>
       <c r="C268" s="5">
         <v>5.7249999999999996</v>
@@ -5331,10 +5331,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B269" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="B269" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="C269" s="8">
         <v>5.7</v>
@@ -5342,10 +5342,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B270" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>531</v>
       </c>
       <c r="C270" s="5">
         <v>3.093</v>
@@ -5353,10 +5353,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B271" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="B271" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="C271" s="8">
         <v>7.4</v>
@@ -5364,10 +5364,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B272" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>535</v>
       </c>
       <c r="C272" s="5">
         <v>4.8600000000000003</v>
@@ -5375,10 +5375,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B273" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="B273" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="C273" s="8">
         <v>9.82</v>
@@ -5386,10 +5386,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B274" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>539</v>
       </c>
       <c r="C274" s="5">
         <v>29.5</v>
@@ -5397,10 +5397,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B275" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="B275" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="C275" s="8">
         <v>5</v>
@@ -5408,10 +5408,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B276" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="C276" s="5">
         <v>20.7956</v>
@@ -5419,10 +5419,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B277" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="B277" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="C277" s="8">
         <v>59.8</v>
@@ -5430,10 +5430,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B278" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>547</v>
       </c>
       <c r="C278" s="5">
         <v>3.4340000000000002</v>
@@ -5441,10 +5441,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B279" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="B279" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="C279" s="8">
         <v>3.58</v>
@@ -5452,10 +5452,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B280" s="4" t="s">
         <v>550</v>
-      </c>
-      <c r="B280" s="4" t="s">
-        <v>551</v>
       </c>
       <c r="C280" s="5">
         <v>1.1319999999999999</v>
@@ -5463,10 +5463,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B281" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="B281" s="7" t="s">
-        <v>553</v>
       </c>
       <c r="C281" s="8">
         <v>4.6840000000000002</v>
@@ -5474,10 +5474,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B282" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>555</v>
       </c>
       <c r="C282" s="5">
         <v>52.116599999999998</v>
@@ -5485,10 +5485,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B283" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="B283" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="C283" s="8">
         <v>57.274999999999999</v>
@@ -5496,10 +5496,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B284" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="B284" s="4" t="s">
-        <v>559</v>
       </c>
       <c r="C284" s="5">
         <v>58.48</v>
@@ -5507,10 +5507,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B285" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="B285" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="C285" s="8">
         <v>30</v>
@@ -5518,10 +5518,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B286" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="B286" s="4" t="s">
-        <v>563</v>
       </c>
       <c r="C286" s="5">
         <v>26.4</v>
@@ -5529,10 +5529,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B287" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="B287" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="C287" s="8">
         <v>20.844999999999999</v>
@@ -5540,10 +5540,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B288" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>567</v>
       </c>
       <c r="C288" s="5">
         <v>29.5</v>
@@ -5551,10 +5551,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B289" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="B289" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="C289" s="8">
         <v>29.7166</v>
@@ -5562,10 +5562,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B290" s="4" t="s">
         <v>570</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>571</v>
       </c>
       <c r="C290" s="5">
         <v>16.38</v>
@@ -5573,10 +5573,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B291" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="B291" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="C291" s="8">
         <v>56.36</v>
@@ -5584,10 +5584,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B292" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>575</v>
       </c>
       <c r="C292" s="5">
         <v>11.73</v>
@@ -5595,10 +5595,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B293" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="B293" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="C293" s="8">
         <v>2.6465999999999998</v>
@@ -5606,10 +5606,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B294" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>579</v>
       </c>
       <c r="C294" s="5">
         <v>2.6446000000000001</v>
@@ -5617,10 +5617,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="B295" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="B295" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="C295" s="8">
         <v>2.6446000000000001</v>
@@ -5628,10 +5628,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B296" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>583</v>
       </c>
       <c r="C296" s="5">
         <v>6.82</v>
@@ -5639,10 +5639,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B297" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="B297" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="C297" s="8">
         <v>29.74</v>
@@ -5650,10 +5650,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B298" s="4" t="s">
         <v>586</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>587</v>
       </c>
       <c r="C298" s="5">
         <v>9.58</v>
@@ -5661,10 +5661,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="B299" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="B299" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="C299" s="8">
         <v>11.4</v>
@@ -5672,10 +5672,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B300" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="B300" s="4" t="s">
-        <v>591</v>
       </c>
       <c r="C300" s="5">
         <v>45.6</v>
@@ -5683,10 +5683,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="B301" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="B301" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="C301" s="8">
         <v>70.56</v>
@@ -5694,10 +5694,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B302" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="B302" s="4" t="s">
-        <v>595</v>
       </c>
       <c r="C302" s="5">
         <v>68.12</v>
@@ -5705,10 +5705,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="B303" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="B303" s="7" t="s">
-        <v>597</v>
       </c>
       <c r="C303" s="8">
         <v>68.739999999999995</v>
@@ -5716,10 +5716,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B304" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>599</v>
       </c>
       <c r="C304" s="5">
         <v>3.6819999999999999</v>
@@ -5727,10 +5727,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B305" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="B305" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="C305" s="8">
         <v>73.34</v>
@@ -5738,10 +5738,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B306" s="4" t="s">
         <v>602</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>603</v>
       </c>
       <c r="C306" s="5">
         <v>101.46</v>
@@ -5749,10 +5749,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="B307" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="B307" s="7" t="s">
-        <v>605</v>
       </c>
       <c r="C307" s="8">
         <v>167.7</v>
@@ -5760,10 +5760,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B308" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>607</v>
       </c>
       <c r="C308" s="5">
         <v>147.58000000000001</v>
@@ -5771,10 +5771,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B309" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="B309" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="C309" s="8">
         <v>22.52</v>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B310" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="B310" s="4" t="s">
-        <v>611</v>
       </c>
       <c r="C310" s="5">
         <v>232.86</v>
@@ -5793,10 +5793,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B311" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="B311" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="C311" s="8">
         <v>58.851999999999997</v>
@@ -5804,10 +5804,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B312" s="4" t="s">
         <v>614</v>
-      </c>
-      <c r="B312" s="4" t="s">
-        <v>615</v>
       </c>
       <c r="C312" s="5">
         <v>56.363999999999997</v>
@@ -5815,10 +5815,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B313" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="B313" s="7" t="s">
-        <v>617</v>
       </c>
       <c r="C313" s="8">
         <v>2</v>
@@ -5826,10 +5826,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B314" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="B314" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="C314" s="5">
         <v>15.72</v>
@@ -5837,10 +5837,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="B315" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="B315" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="C315" s="8">
         <v>2.6065999999999998</v>
@@ -5848,10 +5848,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B316" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="C316" s="5">
         <v>1.5713999999999999</v>

--- a/PRUEBA.xlsx
+++ b/PRUEBA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9c7db393410a0e1/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{B48EAC58-9B7D-4E80-8899-08CE2929E675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14E3E333-103F-4C06-8FCE-B3BAC8728269}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{B48EAC58-9B7D-4E80-8899-08CE2929E675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B069E075-8E5D-475E-82F7-E75C802B6071}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89B8ABE8-3403-4683-9B1D-5A15CBE66AC0}"/>
   </bookViews>
@@ -1910,7 +1910,7 @@
     <t>PRECIO</t>
   </si>
   <si>
-    <t>CODIGO</t>
+    <t>CÓDIGO</t>
   </si>
 </sst>
 </file>

--- a/PRUEBA.xlsx
+++ b/PRUEBA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9c7db393410a0e1/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{B48EAC58-9B7D-4E80-8899-08CE2929E675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B069E075-8E5D-475E-82F7-E75C802B6071}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{B48EAC58-9B7D-4E80-8899-08CE2929E675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B13E742F-6916-4DF6-97EB-1F372B2A21CE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89B8ABE8-3403-4683-9B1D-5A15CBE66AC0}"/>
   </bookViews>
@@ -1923,7 +1923,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1941,6 +1941,13 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1990,7 +1997,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1999,23 +2006,27 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Comma" xfId="6" xr:uid="{A78816F5-C3BF-487B-BC2E-5A29C82C8E47}"/>
     <cellStyle name="Comma [0]" xfId="7" xr:uid="{79B7848A-99E2-4322-94AD-958068B1C3F3}"/>
     <cellStyle name="Currency" xfId="4" xr:uid="{C1964EE4-F665-4819-8321-F6CD95872257}"/>
     <cellStyle name="Currency [0]" xfId="5" xr:uid="{E96A3F7B-D563-47F0-9652-4A7E697C859A}"/>
+    <cellStyle name="Moneda" xfId="8" builtinId="4"/>
     <cellStyle name="Moneda 2" xfId="2" xr:uid="{5F624DCB-803F-4ED9-8203-1FB1D932B6D5}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{D25ACA43-229D-4157-8314-FDD7C956F6E6}"/>
@@ -2357,14 +2368,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58CBEE2-0F56-46A3-91CD-5D73199C16A0}">
   <dimension ref="A1:D316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="10"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2375,7 +2387,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>623</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2389,19 +2401,19 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="8">
         <v>5.7</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>109125050</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>10.42</v>
       </c>
       <c r="D3" s="1"/>
@@ -2413,19 +2425,19 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="8">
         <v>2.2559999999999998</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>109127001</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>12.9411</v>
       </c>
       <c r="D5" s="1"/>
@@ -2437,19 +2449,19 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="8">
         <v>22.461600000000001</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2100201</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>16.0336</v>
       </c>
       <c r="D7" s="1"/>
@@ -2461,19 +2473,19 @@
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>2.1019999999999999</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>2170012</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>5.5</v>
       </c>
       <c r="D9" s="1"/>
@@ -2485,19 +2497,19 @@
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>26</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>19.21</v>
       </c>
       <c r="D11" s="1"/>
@@ -2509,18 +2521,18 @@
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="8">
         <v>20.957599999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>18.595400000000001</v>
       </c>
     </row>
@@ -2531,18 +2543,18 @@
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="8">
         <v>74.567599999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="9">
         <v>8.35</v>
       </c>
     </row>
@@ -2553,18 +2565,18 @@
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="8">
         <v>35.42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>36</v>
       </c>
     </row>
@@ -2575,18 +2587,18 @@
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="8">
         <v>174.08</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <v>5.782</v>
       </c>
     </row>
@@ -2597,18 +2609,18 @@
       <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="8">
         <v>12.9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>5.94</v>
       </c>
     </row>
@@ -2619,18 +2631,18 @@
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="8">
         <v>28.82</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>29.72</v>
       </c>
     </row>
@@ -2641,18 +2653,18 @@
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="8">
         <v>14.188000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="9">
         <v>0.65200000000000002</v>
       </c>
     </row>
@@ -2663,18 +2675,18 @@
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="8">
         <v>8.1839999999999993</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="9">
         <v>1.522</v>
       </c>
     </row>
@@ -2685,18 +2697,18 @@
       <c r="B28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="8">
         <v>1.3148</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="9">
         <v>1.04</v>
       </c>
     </row>
@@ -2707,18 +2719,18 @@
       <c r="B30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="8">
         <v>1.94</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="9">
         <v>0.90400000000000003</v>
       </c>
     </row>
@@ -2729,18 +2741,18 @@
       <c r="B32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="8">
         <v>1.68</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="9">
         <v>0.98</v>
       </c>
     </row>
@@ -2751,18 +2763,18 @@
       <c r="B34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="8">
         <v>0.93400000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="9">
         <v>1.6537999999999999</v>
       </c>
     </row>
@@ -2773,18 +2785,18 @@
       <c r="B36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="8">
         <v>18.355</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="9">
         <v>52.7</v>
       </c>
     </row>
@@ -2795,18 +2807,18 @@
       <c r="B38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="8">
         <v>141.69999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="9">
         <v>116.6</v>
       </c>
     </row>
@@ -2817,18 +2829,18 @@
       <c r="B40" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="8">
         <v>254.6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="9">
         <v>100.74</v>
       </c>
     </row>
@@ -2839,18 +2851,18 @@
       <c r="B42" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="8">
         <v>186.76</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="8" t="e">
+      <c r="C43" s="9" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -2861,18 +2873,18 @@
       <c r="B44" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="8">
         <v>9.282</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="9">
         <v>13.5946</v>
       </c>
     </row>
@@ -2883,18 +2895,18 @@
       <c r="B46" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="8">
         <v>26.154199999999999</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="9">
         <v>11.92</v>
       </c>
     </row>
@@ -2905,18 +2917,18 @@
       <c r="B48" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="8">
         <v>84.06</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="9">
         <v>10.34</v>
       </c>
     </row>
@@ -2927,18 +2939,18 @@
       <c r="B50" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="8">
         <v>46.4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="9">
         <v>7.9184000000000001</v>
       </c>
     </row>
@@ -2949,18 +2961,18 @@
       <c r="B52" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="8">
         <v>1.5504</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="9">
         <v>10.2508</v>
       </c>
     </row>
@@ -2971,18 +2983,18 @@
       <c r="B54" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="8">
         <v>5.4390000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="9">
         <v>15.6</v>
       </c>
     </row>
@@ -2993,18 +3005,18 @@
       <c r="B56" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="8">
         <v>6.68</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="9">
         <v>13.5</v>
       </c>
     </row>
@@ -3015,18 +3027,18 @@
       <c r="B58" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="8">
         <v>15.3736</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="9">
         <v>80.400000000000006</v>
       </c>
     </row>
@@ -3037,18 +3049,18 @@
       <c r="B60" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="8">
         <v>13.7</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="9">
         <v>51.96</v>
       </c>
     </row>
@@ -3059,18 +3071,18 @@
       <c r="B62" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="8">
         <v>46.898800000000001</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="9">
         <v>63</v>
       </c>
     </row>
@@ -3081,18 +3093,18 @@
       <c r="B64" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="8">
         <v>101.9984</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="9">
         <v>40.572000000000003</v>
       </c>
     </row>
@@ -3103,18 +3115,18 @@
       <c r="B66" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="8">
         <v>20.58</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="9">
         <v>55.8</v>
       </c>
     </row>
@@ -3125,18 +3137,18 @@
       <c r="B68" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="8">
         <v>52.32</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="9">
         <v>39.1</v>
       </c>
     </row>
@@ -3147,18 +3159,18 @@
       <c r="B70" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="8">
         <v>28.443999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="9">
         <v>0.5</v>
       </c>
     </row>
@@ -3169,18 +3181,18 @@
       <c r="B72" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="8">
         <v>110.94</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="9">
         <v>79.599999999999994</v>
       </c>
     </row>
@@ -3191,18 +3203,18 @@
       <c r="B74" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="8">
         <v>59.472000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="9">
         <v>42.34</v>
       </c>
     </row>
@@ -3213,18 +3225,18 @@
       <c r="B76" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="8">
         <v>71.78</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="9">
         <v>290</v>
       </c>
     </row>
@@ -3235,18 +3247,18 @@
       <c r="B78" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="8">
         <v>3.8</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="9">
         <v>3.8</v>
       </c>
     </row>
@@ -3257,18 +3269,18 @@
       <c r="B80" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="8">
         <v>19.899999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="9">
         <v>12</v>
       </c>
     </row>
@@ -3279,18 +3291,18 @@
       <c r="B82" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="8">
         <v>83.12</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="9">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -3301,18 +3313,18 @@
       <c r="B84" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="8">
         <v>3.9950000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="9">
         <v>3.5920000000000001</v>
       </c>
     </row>
@@ -3323,18 +3335,18 @@
       <c r="B86" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="8">
         <v>34.379199999999997</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="9">
         <v>24.444199999999999</v>
       </c>
     </row>
@@ -3345,18 +3357,18 @@
       <c r="B88" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="8">
         <v>12.9762</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="9">
         <v>15.22</v>
       </c>
     </row>
@@ -3367,18 +3379,18 @@
       <c r="B90" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="8">
         <v>9.5648</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="9">
         <v>75.239999999999995</v>
       </c>
     </row>
@@ -3389,18 +3401,18 @@
       <c r="B92" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="8">
         <v>47.92</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="9">
         <v>5.2889999999999997</v>
       </c>
     </row>
@@ -3411,18 +3423,18 @@
       <c r="B94" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="8">
         <v>64.8</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="9">
         <v>64</v>
       </c>
     </row>
@@ -3433,18 +3445,18 @@
       <c r="B96" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="8">
         <v>7747.3901999999998</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="9">
         <v>65.3</v>
       </c>
     </row>
@@ -3455,18 +3467,18 @@
       <c r="B98" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="8">
         <v>56.06</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="9">
         <v>54.28</v>
       </c>
     </row>
@@ -3477,18 +3489,18 @@
       <c r="B100" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="8">
         <v>104.34</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="9">
         <v>0</v>
       </c>
     </row>
@@ -3499,18 +3511,18 @@
       <c r="B102" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="8">
         <v>112.28</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="9">
         <v>47.78</v>
       </c>
     </row>
@@ -3521,18 +3533,18 @@
       <c r="B104" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="8">
         <v>25.38</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="9">
         <v>13.53</v>
       </c>
     </row>
@@ -3543,18 +3555,18 @@
       <c r="B106" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="8">
         <v>1.476</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="9">
         <v>88.44</v>
       </c>
     </row>
@@ -3565,18 +3577,18 @@
       <c r="B108" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="8">
         <v>2.3565999999999998</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="9">
         <v>19.600000000000001</v>
       </c>
     </row>
@@ -3587,18 +3599,18 @@
       <c r="B110" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="8">
         <v>13.66</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="9">
         <v>14.08</v>
       </c>
     </row>
@@ -3609,18 +3621,18 @@
       <c r="B112" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="8">
         <v>6.4337999999999997</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113" s="9">
         <v>9.8000000000000007</v>
       </c>
     </row>
@@ -3631,18 +3643,18 @@
       <c r="B114" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="8">
         <v>7.98</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="9">
         <v>66</v>
       </c>
     </row>
@@ -3653,18 +3665,18 @@
       <c r="B116" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="8">
         <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C117" s="9">
         <v>39.299999999999997</v>
       </c>
     </row>
@@ -3675,18 +3687,18 @@
       <c r="B118" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="8">
         <v>12.29</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C119" s="8">
+      <c r="C119" s="9">
         <v>7.7862</v>
       </c>
     </row>
@@ -3697,18 +3709,18 @@
       <c r="B120" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="8">
         <v>35.04</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C121" s="9">
         <v>8.1</v>
       </c>
     </row>
@@ -3719,18 +3731,18 @@
       <c r="B122" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="8">
         <v>26.444400000000002</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C123" s="8">
+      <c r="C123" s="9">
         <v>2.2128000000000001</v>
       </c>
     </row>
@@ -3741,18 +3753,18 @@
       <c r="B124" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="8">
         <v>2.7734000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C125" s="8">
+      <c r="C125" s="9">
         <v>10.221399999999999</v>
       </c>
     </row>
@@ -3763,18 +3775,18 @@
       <c r="B126" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="8">
         <v>29.62</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C127" s="8">
+      <c r="C127" s="9">
         <v>62.52</v>
       </c>
     </row>
@@ -3785,18 +3797,18 @@
       <c r="B128" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="8">
         <v>13.3</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C129" s="8">
+      <c r="C129" s="9">
         <v>9.8255999999999997</v>
       </c>
     </row>
@@ -3807,18 +3819,18 @@
       <c r="B130" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="8">
         <v>9.8255999999999997</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
+      <c r="A131" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C131" s="8">
+      <c r="C131" s="9">
         <v>2.36</v>
       </c>
     </row>
@@ -3829,18 +3841,18 @@
       <c r="B132" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="8">
         <v>27.92</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="9">
         <v>11.92</v>
       </c>
     </row>
@@ -3851,18 +3863,18 @@
       <c r="B134" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="8">
         <v>2.84</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C135" s="8">
+      <c r="C135" s="9">
         <v>6.4</v>
       </c>
     </row>
@@ -3873,18 +3885,18 @@
       <c r="B136" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136" s="8">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C137" s="8">
+      <c r="C137" s="9">
         <v>4.2</v>
       </c>
     </row>
@@ -3895,18 +3907,18 @@
       <c r="B138" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="8">
         <v>13.8</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C139" s="8">
+      <c r="C139" s="9">
         <v>6.03</v>
       </c>
     </row>
@@ -3917,18 +3929,18 @@
       <c r="B140" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="8">
         <v>4.05</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C141" s="8">
+      <c r="C141" s="9">
         <v>7.86</v>
       </c>
     </row>
@@ -3939,18 +3951,18 @@
       <c r="B142" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142" s="8">
         <v>7.65</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="6" t="s">
+      <c r="A143" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C143" s="8">
+      <c r="C143" s="9">
         <v>6.03</v>
       </c>
     </row>
@@ -3961,18 +3973,18 @@
       <c r="B144" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144" s="8">
         <v>6.3</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C145" s="8">
+      <c r="C145" s="9">
         <v>13.053599999999999</v>
       </c>
     </row>
@@ -3983,18 +3995,18 @@
       <c r="B146" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="8">
         <v>3.8635999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C147" s="8">
+      <c r="C147" s="9">
         <v>6.3110999999999997</v>
       </c>
     </row>
@@ -4005,18 +4017,18 @@
       <c r="B148" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148" s="8">
         <v>5.6890000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C149" s="8">
+      <c r="C149" s="9">
         <v>21.16</v>
       </c>
     </row>
@@ -4027,18 +4039,18 @@
       <c r="B150" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="8">
         <v>5.4585999999999997</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C151" s="8">
+      <c r="C151" s="9">
         <v>3.26</v>
       </c>
     </row>
@@ -4049,18 +4061,18 @@
       <c r="B152" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="8">
         <v>1.9141999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C153" s="8">
+      <c r="C153" s="9">
         <v>9.0846</v>
       </c>
     </row>
@@ -4071,18 +4083,18 @@
       <c r="B154" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="8">
         <v>2.3382000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C155" s="8">
+      <c r="C155" s="9">
         <v>3.58</v>
       </c>
     </row>
@@ -4093,18 +4105,18 @@
       <c r="B156" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="8">
         <v>2.4</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="6" t="s">
+      <c r="A157" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C157" s="8">
+      <c r="C157" s="9">
         <v>4.3</v>
       </c>
     </row>
@@ -4115,18 +4127,18 @@
       <c r="B158" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C158" s="5">
+      <c r="C158" s="8">
         <v>5.3760000000000003</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="6" t="s">
+      <c r="A159" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C159" s="8">
+      <c r="C159" s="9">
         <v>22.3</v>
       </c>
     </row>
@@ -4137,18 +4149,18 @@
       <c r="B160" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C160" s="5">
+      <c r="C160" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C161" s="8">
+      <c r="C161" s="9">
         <v>6.38</v>
       </c>
     </row>
@@ -4159,18 +4171,18 @@
       <c r="B162" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C162" s="5">
+      <c r="C162" s="8">
         <v>4.4683999999999999</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C163" s="8">
+      <c r="C163" s="9">
         <v>3.4</v>
       </c>
     </row>
@@ -4181,18 +4193,18 @@
       <c r="B164" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C164" s="5">
+      <c r="C164" s="8">
         <v>1.9119999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C165" s="8">
+      <c r="C165" s="9">
         <v>1.992</v>
       </c>
     </row>
@@ -4203,18 +4215,18 @@
       <c r="B166" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C166" s="5">
+      <c r="C166" s="8">
         <v>2.0424000000000002</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C167" s="8">
+      <c r="C167" s="9">
         <v>76.38</v>
       </c>
     </row>
@@ -4225,18 +4237,18 @@
       <c r="B168" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C168" s="5">
+      <c r="C168" s="8">
         <v>5.1547999999999998</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="6" t="s">
+      <c r="A169" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B169" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C169" s="8">
+      <c r="C169" s="9">
         <v>1.0975999999999999</v>
       </c>
     </row>
@@ -4247,18 +4259,18 @@
       <c r="B170" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C170" s="5">
+      <c r="C170" s="8">
         <v>2.58</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="6" t="s">
+      <c r="A171" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B171" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C171" s="8">
+      <c r="C171" s="9">
         <v>10.221399999999999</v>
       </c>
     </row>
@@ -4269,18 +4281,18 @@
       <c r="B172" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C172" s="5">
+      <c r="C172" s="8">
         <v>2.5912000000000002</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="6" t="s">
+      <c r="A173" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B173" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C173" s="8">
+      <c r="C173" s="9">
         <v>10.92</v>
       </c>
     </row>
@@ -4291,18 +4303,18 @@
       <c r="B174" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C174" s="5">
+      <c r="C174" s="8">
         <v>21.814800000000002</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="6" t="s">
+      <c r="A175" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C175" s="8">
+      <c r="C175" s="9">
         <v>42.767200000000003</v>
       </c>
     </row>
@@ -4313,18 +4325,18 @@
       <c r="B176" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C176" s="5">
+      <c r="C176" s="8">
         <v>9.43</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="6" t="s">
+      <c r="A177" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C177" s="8">
+      <c r="C177" s="9">
         <v>62.052</v>
       </c>
     </row>
@@ -4335,18 +4347,18 @@
       <c r="B178" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C178" s="8">
         <v>19.600000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="6" t="s">
+      <c r="A179" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C179" s="8">
+      <c r="C179" s="9">
         <v>19.3492</v>
       </c>
     </row>
@@ -4357,18 +4369,18 @@
       <c r="B180" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C180" s="5">
+      <c r="C180" s="8">
         <v>31.59</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="6" t="s">
+      <c r="A181" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C181" s="8">
+      <c r="C181" s="9">
         <v>41.515999999999998</v>
       </c>
     </row>
@@ -4379,18 +4391,18 @@
       <c r="B182" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C182" s="5">
+      <c r="C182" s="8">
         <v>9.4372000000000007</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="6" t="s">
+      <c r="A183" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C183" s="8">
+      <c r="C183" s="9">
         <v>6</v>
       </c>
     </row>
@@ -4401,18 +4413,18 @@
       <c r="B184" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C184" s="5">
+      <c r="C184" s="8">
         <v>24.72</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="6" t="s">
+      <c r="A185" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C185" s="8">
+      <c r="C185" s="9">
         <v>20.7</v>
       </c>
     </row>
@@ -4423,18 +4435,18 @@
       <c r="B186" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C186" s="5">
+      <c r="C186" s="8">
         <v>15.3</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="6" t="s">
+      <c r="A187" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C187" s="8">
+      <c r="C187" s="9">
         <v>128.46</v>
       </c>
     </row>
@@ -4445,18 +4457,18 @@
       <c r="B188" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C188" s="8">
         <v>39.160800000000002</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B189" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C189" s="8">
+      <c r="C189" s="9">
         <v>16.21</v>
       </c>
     </row>
@@ -4467,18 +4479,18 @@
       <c r="B190" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C190" s="5">
+      <c r="C190" s="8">
         <v>7.97</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="6" t="s">
+      <c r="A191" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B191" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C191" s="8">
+      <c r="C191" s="9">
         <v>34.983800000000002</v>
       </c>
     </row>
@@ -4489,18 +4501,18 @@
       <c r="B192" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C192" s="5">
+      <c r="C192" s="8">
         <v>73.06</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="6" t="s">
+      <c r="A193" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C193" s="8">
+      <c r="C193" s="9">
         <v>35.46</v>
       </c>
     </row>
@@ -4511,18 +4523,18 @@
       <c r="B194" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C194" s="5">
+      <c r="C194" s="8">
         <v>2.6920000000000002</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C195" s="8">
+      <c r="C195" s="9">
         <v>4.2480000000000002</v>
       </c>
     </row>
@@ -4533,18 +4545,18 @@
       <c r="B196" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C196" s="5">
+      <c r="C196" s="8">
         <v>2.6928000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="6" t="s">
+      <c r="A197" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C197" s="8">
+      <c r="C197" s="9">
         <v>7.0995999999999997</v>
       </c>
     </row>
@@ -4555,18 +4567,18 @@
       <c r="B198" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C198" s="5">
+      <c r="C198" s="8">
         <v>2.6928000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="6" t="s">
+      <c r="A199" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C199" s="8">
+      <c r="C199" s="9">
         <v>2.3199999999999998</v>
       </c>
     </row>
@@ -4577,18 +4589,18 @@
       <c r="B200" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C200" s="5">
+      <c r="C200" s="8">
         <v>4.2480000000000002</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="6" t="s">
+      <c r="A201" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C201" s="8">
+      <c r="C201" s="9">
         <v>3.6415999999999999</v>
       </c>
     </row>
@@ -4599,18 +4611,18 @@
       <c r="B202" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C202" s="5">
+      <c r="C202" s="8">
         <v>3.4283999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="6" t="s">
+      <c r="A203" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C203" s="8">
+      <c r="C203" s="9">
         <v>3.0674000000000001</v>
       </c>
     </row>
@@ -4621,18 +4633,18 @@
       <c r="B204" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C204" s="5">
+      <c r="C204" s="8">
         <v>9.86</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="6" t="s">
+      <c r="A205" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C205" s="8">
+      <c r="C205" s="9">
         <v>16.767800000000001</v>
       </c>
     </row>
@@ -4643,18 +4655,18 @@
       <c r="B206" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C206" s="5">
+      <c r="C206" s="8">
         <v>10.52</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="6" t="s">
+      <c r="A207" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C207" s="8">
+      <c r="C207" s="9">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -4665,18 +4677,18 @@
       <c r="B208" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C208" s="5">
+      <c r="C208" s="8">
         <v>1.9998</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B209" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C209" s="8">
+      <c r="C209" s="9">
         <v>7.66</v>
       </c>
     </row>
@@ -4687,18 +4699,18 @@
       <c r="B210" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C210" s="5">
+      <c r="C210" s="8">
         <v>7.66</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="6" t="s">
+      <c r="A211" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B211" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C211" s="8">
+      <c r="C211" s="9">
         <v>14.92</v>
       </c>
     </row>
@@ -4709,18 +4721,18 @@
       <c r="B212" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C212" s="5">
+      <c r="C212" s="8">
         <v>33.868000000000002</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="6" t="s">
+      <c r="A213" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B213" s="7" t="s">
+      <c r="B213" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C213" s="8">
+      <c r="C213" s="9">
         <v>4.1340000000000003</v>
       </c>
     </row>
@@ -4731,18 +4743,18 @@
       <c r="B214" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C214" s="5">
+      <c r="C214" s="8">
         <v>42.990600000000001</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="6" t="s">
+      <c r="A215" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B215" s="7" t="s">
+      <c r="B215" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C215" s="8">
+      <c r="C215" s="9">
         <v>38.514000000000003</v>
       </c>
     </row>
@@ -4753,18 +4765,18 @@
       <c r="B216" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C216" s="5">
+      <c r="C216" s="8">
         <v>55.34</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C217" s="8">
+      <c r="C217" s="9">
         <v>44.42</v>
       </c>
     </row>
@@ -4775,18 +4787,18 @@
       <c r="B218" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C218" s="5">
+      <c r="C218" s="8">
         <v>69.5</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="6" t="s">
+      <c r="A219" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C219" s="8">
+      <c r="C219" s="9">
         <v>103.04</v>
       </c>
     </row>
@@ -4797,18 +4809,18 @@
       <c r="B220" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C220" s="5">
+      <c r="C220" s="8">
         <v>48.2</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B221" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C221" s="8">
+      <c r="C221" s="9">
         <v>60.68</v>
       </c>
     </row>
@@ -4819,18 +4831,18 @@
       <c r="B222" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C222" s="5">
+      <c r="C222" s="8">
         <v>173.52</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="6" t="s">
+      <c r="A223" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B223" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C223" s="8">
+      <c r="C223" s="9">
         <v>681.6</v>
       </c>
     </row>
@@ -4841,18 +4853,18 @@
       <c r="B224" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C224" s="5">
+      <c r="C224" s="8">
         <v>29</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="6" t="s">
+      <c r="A225" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B225" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C225" s="8">
+      <c r="C225" s="9">
         <v>61</v>
       </c>
     </row>
@@ -4863,18 +4875,18 @@
       <c r="B226" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C226" s="5">
+      <c r="C226" s="8">
         <v>2.62</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="6" t="s">
+      <c r="A227" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B227" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C227" s="8">
+      <c r="C227" s="9">
         <v>63.28</v>
       </c>
     </row>
@@ -4885,18 +4897,18 @@
       <c r="B228" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C228" s="5">
+      <c r="C228" s="8">
         <v>1.35</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="6" t="s">
+      <c r="A229" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B229" s="7" t="s">
+      <c r="B229" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C229" s="8">
+      <c r="C229" s="9">
         <v>6.02</v>
       </c>
     </row>
@@ -4907,18 +4919,18 @@
       <c r="B230" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C230" s="5">
+      <c r="C230" s="8">
         <v>6.4287999999999998</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="6" t="s">
+      <c r="A231" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C231" s="8">
+      <c r="C231" s="9">
         <v>5.8</v>
       </c>
     </row>
@@ -4929,18 +4941,18 @@
       <c r="B232" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C232" s="5">
+      <c r="C232" s="8">
         <v>1.97</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="6" t="s">
+      <c r="A233" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B233" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C233" s="8">
+      <c r="C233" s="9">
         <v>1.5696000000000001</v>
       </c>
     </row>
@@ -4951,18 +4963,18 @@
       <c r="B234" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C234" s="5">
+      <c r="C234" s="8">
         <v>73.239999999999995</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="6" t="s">
+      <c r="A235" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B235" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C235" s="8">
+      <c r="C235" s="9">
         <v>1.3498000000000001</v>
       </c>
     </row>
@@ -4973,18 +4985,18 @@
       <c r="B236" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C236" s="5">
+      <c r="C236" s="8">
         <v>1.3498000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="6" t="s">
+      <c r="A237" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="B237" s="7" t="s">
+      <c r="B237" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C237" s="8">
+      <c r="C237" s="9">
         <v>1.3498000000000001</v>
       </c>
     </row>
@@ -4995,18 +5007,18 @@
       <c r="B238" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C238" s="5">
+      <c r="C238" s="8">
         <v>1.56</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="6" t="s">
+      <c r="A239" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B239" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C239" s="8">
+      <c r="C239" s="9">
         <v>1.88</v>
       </c>
     </row>
@@ -5017,18 +5029,18 @@
       <c r="B240" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C240" s="5">
+      <c r="C240" s="8">
         <v>8.6</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="6" t="s">
+      <c r="A241" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B241" s="7" t="s">
+      <c r="B241" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C241" s="8">
+      <c r="C241" s="9">
         <v>2.54</v>
       </c>
     </row>
@@ -5039,18 +5051,18 @@
       <c r="B242" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C242" s="5">
+      <c r="C242" s="8">
         <v>2.5339999999999998</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="6" t="s">
+      <c r="A243" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B243" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C243" s="8">
+      <c r="C243" s="9">
         <v>2.5339999999999998</v>
       </c>
     </row>
@@ -5061,18 +5073,18 @@
       <c r="B244" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C244" s="5">
+      <c r="C244" s="8">
         <v>8.1433999999999997</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="6" t="s">
+      <c r="A245" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B245" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C245" s="8">
+      <c r="C245" s="9">
         <v>10.535</v>
       </c>
     </row>
@@ -5083,18 +5095,18 @@
       <c r="B246" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C246" s="5">
+      <c r="C246" s="8">
         <v>8.4443999999999999</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="6" t="s">
+      <c r="A247" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B247" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C247" s="8">
+      <c r="C247" s="9">
         <v>6.6</v>
       </c>
     </row>
@@ -5105,18 +5117,18 @@
       <c r="B248" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C248" s="5">
+      <c r="C248" s="8">
         <v>3.92</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="6" t="s">
+      <c r="A249" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B249" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C249" s="8">
+      <c r="C249" s="9">
         <v>5.42</v>
       </c>
     </row>
@@ -5127,18 +5139,18 @@
       <c r="B250" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C250" s="5">
+      <c r="C250" s="8">
         <v>1.8</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="6" t="s">
+      <c r="A251" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="B251" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C251" s="8">
+      <c r="C251" s="9">
         <v>23.941400000000002</v>
       </c>
     </row>
@@ -5149,18 +5161,18 @@
       <c r="B252" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C252" s="5">
+      <c r="C252" s="8">
         <v>3.802</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="6" t="s">
+      <c r="A253" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B253" s="7" t="s">
+      <c r="B253" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C253" s="8">
+      <c r="C253" s="9">
         <v>6.3475999999999999</v>
       </c>
     </row>
@@ -5171,18 +5183,18 @@
       <c r="B254" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C254" s="5">
+      <c r="C254" s="8">
         <v>1.7</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="6" t="s">
+      <c r="A255" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="B255" s="7" t="s">
+      <c r="B255" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C255" s="8">
+      <c r="C255" s="9">
         <v>2.4279999999999999</v>
       </c>
     </row>
@@ -5193,18 +5205,18 @@
       <c r="B256" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C256" s="5">
+      <c r="C256" s="8">
         <v>91.16</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="6" t="s">
+      <c r="A257" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="B257" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C257" s="8">
+      <c r="C257" s="9">
         <v>3.8239999999999998</v>
       </c>
     </row>
@@ -5215,18 +5227,18 @@
       <c r="B258" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C258" s="5">
+      <c r="C258" s="8">
         <v>10.48</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="6" t="s">
+      <c r="A259" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="B259" s="7" t="s">
+      <c r="B259" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C259" s="8">
+      <c r="C259" s="9">
         <v>3.15</v>
       </c>
     </row>
@@ -5237,18 +5249,18 @@
       <c r="B260" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C260" s="5">
+      <c r="C260" s="8">
         <v>3.0619999999999998</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="6" t="s">
+      <c r="A261" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="B261" s="7" t="s">
+      <c r="B261" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C261" s="8">
+      <c r="C261" s="9">
         <v>75.760000000000005</v>
       </c>
     </row>
@@ -5259,18 +5271,18 @@
       <c r="B262" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C262" s="5">
+      <c r="C262" s="8">
         <v>43.793999999999997</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="6" t="s">
+      <c r="A263" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="B263" s="7" t="s">
+      <c r="B263" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="C263" s="8">
+      <c r="C263" s="9">
         <v>5.46</v>
       </c>
     </row>
@@ -5281,18 +5293,18 @@
       <c r="B264" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C264" s="5">
+      <c r="C264" s="8">
         <v>8.06</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="6" t="s">
+      <c r="A265" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="B265" s="7" t="s">
+      <c r="B265" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C265" s="8">
+      <c r="C265" s="9">
         <v>4.24</v>
       </c>
     </row>
@@ -5303,18 +5315,18 @@
       <c r="B266" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C266" s="5">
+      <c r="C266" s="8">
         <v>11.04</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="6" t="s">
+      <c r="A267" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="B267" s="7" t="s">
+      <c r="B267" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C267" s="8">
+      <c r="C267" s="9">
         <v>1.8129999999999999</v>
       </c>
     </row>
@@ -5325,18 +5337,18 @@
       <c r="B268" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C268" s="5">
+      <c r="C268" s="8">
         <v>5.7249999999999996</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="6" t="s">
+      <c r="A269" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="B269" s="7" t="s">
+      <c r="B269" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="C269" s="8">
+      <c r="C269" s="9">
         <v>5.7</v>
       </c>
     </row>
@@ -5347,18 +5359,18 @@
       <c r="B270" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C270" s="5">
+      <c r="C270" s="8">
         <v>3.093</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="6" t="s">
+      <c r="A271" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="B271" s="7" t="s">
+      <c r="B271" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C271" s="8">
+      <c r="C271" s="9">
         <v>7.4</v>
       </c>
     </row>
@@ -5369,18 +5381,18 @@
       <c r="B272" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="C272" s="5">
+      <c r="C272" s="8">
         <v>4.8600000000000003</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="6" t="s">
+      <c r="A273" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="B273" s="7" t="s">
+      <c r="B273" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C273" s="8">
+      <c r="C273" s="9">
         <v>9.82</v>
       </c>
     </row>
@@ -5391,18 +5403,18 @@
       <c r="B274" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C274" s="5">
+      <c r="C274" s="8">
         <v>29.5</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="6" t="s">
+      <c r="A275" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="B275" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C275" s="8">
+      <c r="C275" s="9">
         <v>5</v>
       </c>
     </row>
@@ -5413,18 +5425,18 @@
       <c r="B276" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C276" s="5">
+      <c r="C276" s="8">
         <v>20.7956</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="6" t="s">
+      <c r="A277" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B277" s="7" t="s">
+      <c r="B277" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="C277" s="8">
+      <c r="C277" s="9">
         <v>59.8</v>
       </c>
     </row>
@@ -5435,18 +5447,18 @@
       <c r="B278" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C278" s="5">
+      <c r="C278" s="8">
         <v>3.4340000000000002</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="6" t="s">
+      <c r="A279" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B279" s="7" t="s">
+      <c r="B279" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C279" s="8">
+      <c r="C279" s="9">
         <v>3.58</v>
       </c>
     </row>
@@ -5457,18 +5469,18 @@
       <c r="B280" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="C280" s="5">
+      <c r="C280" s="8">
         <v>1.1319999999999999</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="6" t="s">
+      <c r="A281" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="B281" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C281" s="8">
+      <c r="C281" s="9">
         <v>4.6840000000000002</v>
       </c>
     </row>
@@ -5479,18 +5491,18 @@
       <c r="B282" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="C282" s="5">
+      <c r="C282" s="8">
         <v>52.116599999999998</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="6" t="s">
+      <c r="A283" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B283" s="7" t="s">
+      <c r="B283" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="C283" s="8">
+      <c r="C283" s="9">
         <v>57.274999999999999</v>
       </c>
     </row>
@@ -5501,18 +5513,18 @@
       <c r="B284" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C284" s="5">
+      <c r="C284" s="8">
         <v>58.48</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="6" t="s">
+      <c r="A285" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="B285" s="7" t="s">
+      <c r="B285" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C285" s="8">
+      <c r="C285" s="9">
         <v>30</v>
       </c>
     </row>
@@ -5523,18 +5535,18 @@
       <c r="B286" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="C286" s="5">
+      <c r="C286" s="8">
         <v>26.4</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="6" t="s">
+      <c r="A287" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="B287" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C287" s="8">
+      <c r="C287" s="9">
         <v>20.844999999999999</v>
       </c>
     </row>
@@ -5545,18 +5557,18 @@
       <c r="B288" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C288" s="5">
+      <c r="C288" s="8">
         <v>29.5</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="6" t="s">
+      <c r="A289" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="B289" s="7" t="s">
+      <c r="B289" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C289" s="8">
+      <c r="C289" s="9">
         <v>29.7166</v>
       </c>
     </row>
@@ -5567,18 +5579,18 @@
       <c r="B290" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C290" s="5">
+      <c r="C290" s="8">
         <v>16.38</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="6" t="s">
+      <c r="A291" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="B291" s="7" t="s">
+      <c r="B291" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="C291" s="8">
+      <c r="C291" s="9">
         <v>56.36</v>
       </c>
     </row>
@@ -5589,18 +5601,18 @@
       <c r="B292" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C292" s="5">
+      <c r="C292" s="8">
         <v>11.73</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="6" t="s">
+      <c r="A293" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="B293" s="7" t="s">
+      <c r="B293" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C293" s="8">
+      <c r="C293" s="9">
         <v>2.6465999999999998</v>
       </c>
     </row>
@@ -5611,18 +5623,18 @@
       <c r="B294" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="C294" s="5">
+      <c r="C294" s="8">
         <v>2.6446000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="6" t="s">
+      <c r="A295" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B295" s="7" t="s">
+      <c r="B295" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C295" s="8">
+      <c r="C295" s="9">
         <v>2.6446000000000001</v>
       </c>
     </row>
@@ -5633,18 +5645,18 @@
       <c r="B296" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="C296" s="5">
+      <c r="C296" s="8">
         <v>6.82</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="6" t="s">
+      <c r="A297" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="B297" s="7" t="s">
+      <c r="B297" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C297" s="8">
+      <c r="C297" s="9">
         <v>29.74</v>
       </c>
     </row>
@@ -5655,18 +5667,18 @@
       <c r="B298" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="C298" s="5">
+      <c r="C298" s="8">
         <v>9.58</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="6" t="s">
+      <c r="A299" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="B299" s="7" t="s">
+      <c r="B299" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="C299" s="8">
+      <c r="C299" s="9">
         <v>11.4</v>
       </c>
     </row>
@@ -5677,18 +5689,18 @@
       <c r="B300" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="C300" s="5">
+      <c r="C300" s="8">
         <v>45.6</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="6" t="s">
+      <c r="A301" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="B301" s="7" t="s">
+      <c r="B301" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="C301" s="8">
+      <c r="C301" s="9">
         <v>70.56</v>
       </c>
     </row>
@@ -5699,18 +5711,18 @@
       <c r="B302" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C302" s="5">
+      <c r="C302" s="8">
         <v>68.12</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="6" t="s">
+      <c r="A303" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B303" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C303" s="8">
+      <c r="C303" s="9">
         <v>68.739999999999995</v>
       </c>
     </row>
@@ -5721,18 +5733,18 @@
       <c r="B304" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="C304" s="5">
+      <c r="C304" s="8">
         <v>3.6819999999999999</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="6" t="s">
+      <c r="A305" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B305" s="7" t="s">
+      <c r="B305" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="C305" s="8">
+      <c r="C305" s="9">
         <v>73.34</v>
       </c>
     </row>
@@ -5743,18 +5755,18 @@
       <c r="B306" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C306" s="5">
+      <c r="C306" s="8">
         <v>101.46</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="6" t="s">
+      <c r="A307" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="B307" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="C307" s="8">
+      <c r="C307" s="9">
         <v>167.7</v>
       </c>
     </row>
@@ -5765,18 +5777,18 @@
       <c r="B308" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="C308" s="5">
+      <c r="C308" s="8">
         <v>147.58000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="6" t="s">
+      <c r="A309" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="B309" s="7" t="s">
+      <c r="B309" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="C309" s="8">
+      <c r="C309" s="9">
         <v>22.52</v>
       </c>
     </row>
@@ -5787,18 +5799,18 @@
       <c r="B310" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C310" s="5">
+      <c r="C310" s="8">
         <v>232.86</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="6" t="s">
+      <c r="A311" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B311" s="7" t="s">
+      <c r="B311" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="C311" s="8">
+      <c r="C311" s="9">
         <v>58.851999999999997</v>
       </c>
     </row>
@@ -5809,18 +5821,18 @@
       <c r="B312" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="C312" s="5">
+      <c r="C312" s="8">
         <v>56.363999999999997</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="6" t="s">
+      <c r="A313" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B313" s="7" t="s">
+      <c r="B313" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="C313" s="8">
+      <c r="C313" s="9">
         <v>2</v>
       </c>
     </row>
@@ -5831,18 +5843,18 @@
       <c r="B314" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="C314" s="5">
+      <c r="C314" s="8">
         <v>15.72</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="6" t="s">
+      <c r="A315" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B315" s="7" t="s">
+      <c r="B315" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="C315" s="8">
+      <c r="C315" s="9">
         <v>2.6065999999999998</v>
       </c>
     </row>
@@ -5853,7 +5865,7 @@
       <c r="B316" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="C316" s="5">
+      <c r="C316" s="8">
         <v>1.5713999999999999</v>
       </c>
     </row>

--- a/PRUEBA.xlsx
+++ b/PRUEBA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9c7db393410a0e1/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{B48EAC58-9B7D-4E80-8899-08CE2929E675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B13E742F-6916-4DF6-97EB-1F372B2A21CE}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{B48EAC58-9B7D-4E80-8899-08CE2929E675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC29BD6E-AE4E-4402-B15E-136F4B918835}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89B8ABE8-3403-4683-9B1D-5A15CBE66AC0}"/>
   </bookViews>
@@ -2008,7 +2008,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -2020,6 +2020,7 @@
     <xf numFmtId="44" fontId="2" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="6" xr:uid="{A78816F5-C3BF-487B-BC2E-5A29C82C8E47}"/>
@@ -2366,10 +2367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58CBEE2-0F56-46A3-91CD-5D73199C16A0}">
-  <dimension ref="A1:D316"/>
+  <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2380,7 +2381,7 @@
     <col min="4" max="4" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>624</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>109120104</v>
       </c>
@@ -2405,8 +2406,9 @@
         <v>5.7</v>
       </c>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>109125050</v>
       </c>
@@ -2417,8 +2419,9 @@
         <v>10.42</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>109125051</v>
       </c>
@@ -2426,11 +2429,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="8">
-        <v>2.2559999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>109127001</v>
       </c>
@@ -2438,11 +2442,12 @@
         <v>4</v>
       </c>
       <c r="C5" s="9">
-        <v>12.9411</v>
+        <v>12.94</v>
       </c>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>121651000</v>
       </c>
@@ -2450,11 +2455,12 @@
         <v>5</v>
       </c>
       <c r="C6" s="8">
-        <v>22.461600000000001</v>
+        <v>22.46</v>
       </c>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2100201</v>
       </c>
@@ -2462,11 +2468,12 @@
         <v>6</v>
       </c>
       <c r="C7" s="9">
-        <v>16.0336</v>
+        <v>16.03</v>
       </c>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2100205</v>
       </c>
@@ -2474,11 +2481,12 @@
         <v>7</v>
       </c>
       <c r="C8" s="8">
-        <v>2.1019999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>2170012</v>
       </c>
@@ -2489,8 +2497,9 @@
         <v>5.5</v>
       </c>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2170013</v>
       </c>
@@ -2501,8 +2510,9 @@
         <v>26</v>
       </c>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2513,8 +2523,9 @@
         <v>19.21</v>
       </c>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -2522,10 +2533,11 @@
         <v>14</v>
       </c>
       <c r="C12" s="8">
-        <v>20.957599999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.96</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -2533,10 +2545,11 @@
         <v>16</v>
       </c>
       <c r="C13" s="9">
-        <v>18.595400000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -2544,10 +2557,11 @@
         <v>18</v>
       </c>
       <c r="C14" s="8">
-        <v>74.567599999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74.569999999999993</v>
+      </c>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -2557,8 +2571,9 @@
       <c r="C15" s="9">
         <v>8.35</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -2568,8 +2583,9 @@
       <c r="C16" s="8">
         <v>35.42</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
@@ -2579,8 +2595,9 @@
       <c r="C17" s="9">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2590,8 +2607,9 @@
       <c r="C18" s="8">
         <v>174.08</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -2599,10 +2617,11 @@
         <v>28</v>
       </c>
       <c r="C19" s="9">
-        <v>5.782</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.78</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -2612,8 +2631,9 @@
       <c r="C20" s="8">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -2623,8 +2643,9 @@
       <c r="C21" s="9">
         <v>5.94</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>33</v>
       </c>
@@ -2634,8 +2655,9 @@
       <c r="C22" s="8">
         <v>28.82</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -2645,8 +2667,9 @@
       <c r="C23" s="9">
         <v>29.72</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -2654,10 +2677,11 @@
         <v>38</v>
       </c>
       <c r="C24" s="8">
-        <v>14.188000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14.19</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
@@ -2665,10 +2689,11 @@
         <v>40</v>
       </c>
       <c r="C25" s="9">
-        <v>0.65200000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.65</v>
+      </c>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -2676,10 +2701,11 @@
         <v>42</v>
       </c>
       <c r="C26" s="8">
-        <v>8.1839999999999993</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.18</v>
+      </c>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
@@ -2687,10 +2713,11 @@
         <v>44</v>
       </c>
       <c r="C27" s="9">
-        <v>1.522</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.52</v>
+      </c>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>45</v>
       </c>
@@ -2698,10 +2725,11 @@
         <v>46</v>
       </c>
       <c r="C28" s="8">
-        <v>1.3148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.31</v>
+      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
@@ -2711,8 +2739,9 @@
       <c r="C29" s="9">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>49</v>
       </c>
@@ -2722,8 +2751,9 @@
       <c r="C30" s="8">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>51</v>
       </c>
@@ -2731,10 +2761,11 @@
         <v>52</v>
       </c>
       <c r="C31" s="9">
-        <v>0.90400000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>53</v>
       </c>
@@ -2744,8 +2775,9 @@
       <c r="C32" s="8">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>55</v>
       </c>
@@ -2755,8 +2787,9 @@
       <c r="C33" s="9">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>57</v>
       </c>
@@ -2764,10 +2797,11 @@
         <v>58</v>
       </c>
       <c r="C34" s="8">
-        <v>0.93400000000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.93</v>
+      </c>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>59</v>
       </c>
@@ -2775,10 +2809,11 @@
         <v>60</v>
       </c>
       <c r="C35" s="9">
-        <v>1.6537999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.65</v>
+      </c>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
@@ -2786,10 +2821,11 @@
         <v>62</v>
       </c>
       <c r="C36" s="8">
-        <v>18.355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18.36</v>
+      </c>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>63</v>
       </c>
@@ -2799,8 +2835,9 @@
       <c r="C37" s="9">
         <v>52.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>65</v>
       </c>
@@ -2810,8 +2847,9 @@
       <c r="C38" s="8">
         <v>141.69999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>67</v>
       </c>
@@ -2821,8 +2859,9 @@
       <c r="C39" s="9">
         <v>116.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>69</v>
       </c>
@@ -2832,8 +2871,9 @@
       <c r="C40" s="8">
         <v>254.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>71</v>
       </c>
@@ -2843,8 +2883,9 @@
       <c r="C41" s="9">
         <v>100.74</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>73</v>
       </c>
@@ -2854,8 +2895,9 @@
       <c r="C42" s="8">
         <v>186.76</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>75</v>
       </c>
@@ -2865,8 +2907,9 @@
       <c r="C43" s="9" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>77</v>
       </c>
@@ -2874,10 +2917,11 @@
         <v>78</v>
       </c>
       <c r="C44" s="8">
-        <v>9.282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>79</v>
       </c>
@@ -2885,10 +2929,11 @@
         <v>80</v>
       </c>
       <c r="C45" s="9">
-        <v>13.5946</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.59</v>
+      </c>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>81</v>
       </c>
@@ -2896,10 +2941,11 @@
         <v>82</v>
       </c>
       <c r="C46" s="8">
-        <v>26.154199999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26.15</v>
+      </c>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>83</v>
       </c>
@@ -2909,8 +2955,9 @@
       <c r="C47" s="9">
         <v>11.92</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>85</v>
       </c>
@@ -2920,8 +2967,9 @@
       <c r="C48" s="8">
         <v>84.06</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>87</v>
       </c>
@@ -2931,8 +2979,9 @@
       <c r="C49" s="9">
         <v>10.34</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>89</v>
       </c>
@@ -2942,8 +2991,9 @@
       <c r="C50" s="8">
         <v>46.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>91</v>
       </c>
@@ -2951,10 +3001,11 @@
         <v>92</v>
       </c>
       <c r="C51" s="9">
-        <v>7.9184000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.92</v>
+      </c>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>93</v>
       </c>
@@ -2962,10 +3013,11 @@
         <v>94</v>
       </c>
       <c r="C52" s="8">
-        <v>1.5504</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.55</v>
+      </c>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>95</v>
       </c>
@@ -2973,10 +3025,11 @@
         <v>96</v>
       </c>
       <c r="C53" s="9">
-        <v>10.2508</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.25</v>
+      </c>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>97</v>
       </c>
@@ -2984,10 +3037,11 @@
         <v>98</v>
       </c>
       <c r="C54" s="8">
-        <v>5.4390000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.44</v>
+      </c>
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>99</v>
       </c>
@@ -2997,8 +3051,9 @@
       <c r="C55" s="9">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>101</v>
       </c>
@@ -3008,8 +3063,9 @@
       <c r="C56" s="8">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>103</v>
       </c>
@@ -3019,8 +3075,9 @@
       <c r="C57" s="9">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>105</v>
       </c>
@@ -3028,10 +3085,11 @@
         <v>106</v>
       </c>
       <c r="C58" s="8">
-        <v>15.3736</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.37</v>
+      </c>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>107</v>
       </c>
@@ -3041,8 +3099,9 @@
       <c r="C59" s="9">
         <v>80.400000000000006</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>109</v>
       </c>
@@ -3052,8 +3111,9 @@
       <c r="C60" s="8">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>111</v>
       </c>
@@ -3063,8 +3123,9 @@
       <c r="C61" s="9">
         <v>51.96</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>113</v>
       </c>
@@ -3072,10 +3133,11 @@
         <v>114</v>
       </c>
       <c r="C62" s="8">
-        <v>46.898800000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46.9</v>
+      </c>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>115</v>
       </c>
@@ -3085,8 +3147,9 @@
       <c r="C63" s="9">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>117</v>
       </c>
@@ -3094,10 +3157,11 @@
         <v>118</v>
       </c>
       <c r="C64" s="8">
-        <v>101.9984</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>119</v>
       </c>
@@ -3105,10 +3169,11 @@
         <v>120</v>
       </c>
       <c r="C65" s="9">
-        <v>40.572000000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40.57</v>
+      </c>
+      <c r="E65" s="11"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>121</v>
       </c>
@@ -3118,8 +3183,9 @@
       <c r="C66" s="8">
         <v>20.58</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E66" s="11"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>123</v>
       </c>
@@ -3129,8 +3195,9 @@
       <c r="C67" s="9">
         <v>55.8</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E67" s="11"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>125</v>
       </c>
@@ -3140,8 +3207,9 @@
       <c r="C68" s="8">
         <v>52.32</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E68" s="11"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>127</v>
       </c>
@@ -3151,8 +3219,9 @@
       <c r="C69" s="9">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E69" s="11"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>129</v>
       </c>
@@ -3160,10 +3229,11 @@
         <v>130</v>
       </c>
       <c r="C70" s="8">
-        <v>28.443999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28.44</v>
+      </c>
+      <c r="E70" s="11"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>131</v>
       </c>
@@ -3173,8 +3243,9 @@
       <c r="C71" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E71" s="11"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>133</v>
       </c>
@@ -3184,8 +3255,9 @@
       <c r="C72" s="8">
         <v>110.94</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E72" s="11"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>135</v>
       </c>
@@ -3195,8 +3267,9 @@
       <c r="C73" s="9">
         <v>79.599999999999994</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E73" s="11"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>137</v>
       </c>
@@ -3204,10 +3277,11 @@
         <v>138</v>
       </c>
       <c r="C74" s="8">
-        <v>59.472000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59.47</v>
+      </c>
+      <c r="E74" s="11"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>139</v>
       </c>
@@ -3217,8 +3291,9 @@
       <c r="C75" s="9">
         <v>42.34</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E75" s="11"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>141</v>
       </c>
@@ -3228,8 +3303,9 @@
       <c r="C76" s="8">
         <v>71.78</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E76" s="11"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>143</v>
       </c>
@@ -3239,8 +3315,9 @@
       <c r="C77" s="9">
         <v>290</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E77" s="11"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>145</v>
       </c>
@@ -3250,8 +3327,9 @@
       <c r="C78" s="8">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E78" s="11"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>147</v>
       </c>
@@ -3261,8 +3339,9 @@
       <c r="C79" s="9">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E79" s="11"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>149</v>
       </c>
@@ -3272,8 +3351,9 @@
       <c r="C80" s="8">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E80" s="11"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>151</v>
       </c>
@@ -3283,8 +3363,9 @@
       <c r="C81" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E81" s="11"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>153</v>
       </c>
@@ -3294,8 +3375,9 @@
       <c r="C82" s="8">
         <v>83.12</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E82" s="11"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>155</v>
       </c>
@@ -3305,8 +3387,9 @@
       <c r="C83" s="9">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E83" s="11"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>157</v>
       </c>
@@ -3314,10 +3397,11 @@
         <v>158</v>
       </c>
       <c r="C84" s="8">
-        <v>3.9950000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="E84" s="11"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>159</v>
       </c>
@@ -3325,10 +3409,11 @@
         <v>160</v>
       </c>
       <c r="C85" s="9">
-        <v>3.5920000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.59</v>
+      </c>
+      <c r="E85" s="11"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>161</v>
       </c>
@@ -3336,10 +3421,11 @@
         <v>162</v>
       </c>
       <c r="C86" s="8">
-        <v>34.379199999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34.380000000000003</v>
+      </c>
+      <c r="E86" s="11"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>163</v>
       </c>
@@ -3347,10 +3433,11 @@
         <v>164</v>
       </c>
       <c r="C87" s="9">
-        <v>24.444199999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24.44</v>
+      </c>
+      <c r="E87" s="11"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>165</v>
       </c>
@@ -3358,10 +3445,11 @@
         <v>166</v>
       </c>
       <c r="C88" s="8">
-        <v>12.9762</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.98</v>
+      </c>
+      <c r="E88" s="11"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>167</v>
       </c>
@@ -3371,8 +3459,9 @@
       <c r="C89" s="9">
         <v>15.22</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E89" s="11"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>169</v>
       </c>
@@ -3380,10 +3469,11 @@
         <v>170</v>
       </c>
       <c r="C90" s="8">
-        <v>9.5648</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.56</v>
+      </c>
+      <c r="E90" s="11"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>171</v>
       </c>
@@ -3393,8 +3483,9 @@
       <c r="C91" s="9">
         <v>75.239999999999995</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E91" s="11"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>173</v>
       </c>
@@ -3404,8 +3495,9 @@
       <c r="C92" s="8">
         <v>47.92</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E92" s="11"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>175</v>
       </c>
@@ -3413,10 +3505,11 @@
         <v>176</v>
       </c>
       <c r="C93" s="9">
-        <v>5.2889999999999997</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.29</v>
+      </c>
+      <c r="E93" s="11"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>177</v>
       </c>
@@ -3426,8 +3519,9 @@
       <c r="C94" s="8">
         <v>64.8</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E94" s="11"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>179</v>
       </c>
@@ -3437,8 +3531,9 @@
       <c r="C95" s="9">
         <v>64</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E95" s="11"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>181</v>
       </c>
@@ -3446,10 +3541,11 @@
         <v>182</v>
       </c>
       <c r="C96" s="8">
-        <v>7747.3901999999998</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7747.39</v>
+      </c>
+      <c r="E96" s="11"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>183</v>
       </c>
@@ -3459,8 +3555,9 @@
       <c r="C97" s="9">
         <v>65.3</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E97" s="11"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>185</v>
       </c>
@@ -3470,8 +3567,9 @@
       <c r="C98" s="8">
         <v>56.06</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E98" s="11"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>187</v>
       </c>
@@ -3481,8 +3579,9 @@
       <c r="C99" s="9">
         <v>54.28</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E99" s="11"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>189</v>
       </c>
@@ -3492,8 +3591,9 @@
       <c r="C100" s="8">
         <v>104.34</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E100" s="11"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>191</v>
       </c>
@@ -3503,8 +3603,9 @@
       <c r="C101" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E101" s="11"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>193</v>
       </c>
@@ -3514,8 +3615,9 @@
       <c r="C102" s="8">
         <v>112.28</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E102" s="11"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>195</v>
       </c>
@@ -3525,8 +3627,9 @@
       <c r="C103" s="9">
         <v>47.78</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E103" s="11"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>197</v>
       </c>
@@ -3536,8 +3639,9 @@
       <c r="C104" s="8">
         <v>25.38</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E104" s="11"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>199</v>
       </c>
@@ -3547,8 +3651,9 @@
       <c r="C105" s="9">
         <v>13.53</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E105" s="11"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>201</v>
       </c>
@@ -3556,10 +3661,11 @@
         <v>202</v>
       </c>
       <c r="C106" s="8">
-        <v>1.476</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.48</v>
+      </c>
+      <c r="E106" s="11"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>203</v>
       </c>
@@ -3569,8 +3675,9 @@
       <c r="C107" s="9">
         <v>88.44</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E107" s="11"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>205</v>
       </c>
@@ -3578,10 +3685,11 @@
         <v>206</v>
       </c>
       <c r="C108" s="8">
-        <v>2.3565999999999998</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.36</v>
+      </c>
+      <c r="E108" s="11"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>207</v>
       </c>
@@ -3591,8 +3699,9 @@
       <c r="C109" s="9">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E109" s="11"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>209</v>
       </c>
@@ -3602,8 +3711,9 @@
       <c r="C110" s="8">
         <v>13.66</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E110" s="11"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>211</v>
       </c>
@@ -3613,8 +3723,9 @@
       <c r="C111" s="9">
         <v>14.08</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E111" s="11"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>213</v>
       </c>
@@ -3622,10 +3733,11 @@
         <v>214</v>
       </c>
       <c r="C112" s="8">
-        <v>6.4337999999999997</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.43</v>
+      </c>
+      <c r="E112" s="11"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>215</v>
       </c>
@@ -3635,8 +3747,9 @@
       <c r="C113" s="9">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E113" s="11"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>217</v>
       </c>
@@ -3646,8 +3759,9 @@
       <c r="C114" s="8">
         <v>7.98</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E114" s="11"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>219</v>
       </c>
@@ -3657,8 +3771,9 @@
       <c r="C115" s="9">
         <v>66</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E115" s="11"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>221</v>
       </c>
@@ -3668,8 +3783,9 @@
       <c r="C116" s="8">
         <v>66</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E116" s="11"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>223</v>
       </c>
@@ -3679,8 +3795,9 @@
       <c r="C117" s="9">
         <v>39.299999999999997</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E117" s="11"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>225</v>
       </c>
@@ -3690,8 +3807,9 @@
       <c r="C118" s="8">
         <v>12.29</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E118" s="11"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>227</v>
       </c>
@@ -3699,10 +3817,11 @@
         <v>228</v>
       </c>
       <c r="C119" s="9">
-        <v>7.7862</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.79</v>
+      </c>
+      <c r="E119" s="11"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>229</v>
       </c>
@@ -3712,8 +3831,9 @@
       <c r="C120" s="8">
         <v>35.04</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E120" s="11"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>231</v>
       </c>
@@ -3723,8 +3843,9 @@
       <c r="C121" s="9">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E121" s="11"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>233</v>
       </c>
@@ -3732,10 +3853,11 @@
         <v>234</v>
       </c>
       <c r="C122" s="8">
-        <v>26.444400000000002</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26.44</v>
+      </c>
+      <c r="E122" s="11"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>235</v>
       </c>
@@ -3743,10 +3865,11 @@
         <v>236</v>
       </c>
       <c r="C123" s="9">
-        <v>2.2128000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.21</v>
+      </c>
+      <c r="E123" s="11"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>237</v>
       </c>
@@ -3754,10 +3877,11 @@
         <v>238</v>
       </c>
       <c r="C124" s="8">
-        <v>2.7734000000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.77</v>
+      </c>
+      <c r="E124" s="11"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>239</v>
       </c>
@@ -3765,10 +3889,11 @@
         <v>240</v>
       </c>
       <c r="C125" s="9">
-        <v>10.221399999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="E125" s="11"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>241</v>
       </c>
@@ -3778,8 +3903,9 @@
       <c r="C126" s="8">
         <v>29.62</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E126" s="11"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>243</v>
       </c>
@@ -3789,8 +3915,9 @@
       <c r="C127" s="9">
         <v>62.52</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E127" s="11"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>245</v>
       </c>
@@ -3800,8 +3927,9 @@
       <c r="C128" s="8">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E128" s="11"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>247</v>
       </c>
@@ -3809,10 +3937,11 @@
         <v>248</v>
       </c>
       <c r="C129" s="9">
-        <v>9.8255999999999997</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.83</v>
+      </c>
+      <c r="E129" s="11"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>249</v>
       </c>
@@ -3820,10 +3949,11 @@
         <v>250</v>
       </c>
       <c r="C130" s="8">
-        <v>9.8255999999999997</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.83</v>
+      </c>
+      <c r="E130" s="11"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>251</v>
       </c>
@@ -3833,8 +3963,9 @@
       <c r="C131" s="9">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E131" s="11"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>253</v>
       </c>
@@ -3844,8 +3975,9 @@
       <c r="C132" s="8">
         <v>27.92</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E132" s="11"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>255</v>
       </c>
@@ -3855,8 +3987,9 @@
       <c r="C133" s="9">
         <v>11.92</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E133" s="11"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>257</v>
       </c>
@@ -3866,8 +3999,9 @@
       <c r="C134" s="8">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E134" s="11"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>259</v>
       </c>
@@ -3877,8 +4011,9 @@
       <c r="C135" s="9">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E135" s="11"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>261</v>
       </c>
@@ -3888,8 +4023,9 @@
       <c r="C136" s="8">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E136" s="11"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>263</v>
       </c>
@@ -3899,8 +4035,9 @@
       <c r="C137" s="9">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E137" s="11"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>265</v>
       </c>
@@ -3910,8 +4047,9 @@
       <c r="C138" s="8">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E138" s="11"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>267</v>
       </c>
@@ -3921,8 +4059,9 @@
       <c r="C139" s="9">
         <v>6.03</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E139" s="11"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>269</v>
       </c>
@@ -3932,8 +4071,9 @@
       <c r="C140" s="8">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E140" s="11"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>271</v>
       </c>
@@ -3943,8 +4083,9 @@
       <c r="C141" s="9">
         <v>7.86</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E141" s="11"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>273</v>
       </c>
@@ -3954,8 +4095,9 @@
       <c r="C142" s="8">
         <v>7.65</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E142" s="11"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>275</v>
       </c>
@@ -3965,8 +4107,9 @@
       <c r="C143" s="9">
         <v>6.03</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E143" s="11"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>277</v>
       </c>
@@ -3976,8 +4119,9 @@
       <c r="C144" s="8">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E144" s="11"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>279</v>
       </c>
@@ -3985,10 +4129,11 @@
         <v>280</v>
       </c>
       <c r="C145" s="9">
-        <v>13.053599999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.05</v>
+      </c>
+      <c r="E145" s="11"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>281</v>
       </c>
@@ -3996,10 +4141,11 @@
         <v>282</v>
       </c>
       <c r="C146" s="8">
-        <v>3.8635999999999999</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.86</v>
+      </c>
+      <c r="E146" s="11"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>283</v>
       </c>
@@ -4007,10 +4153,11 @@
         <v>284</v>
       </c>
       <c r="C147" s="9">
-        <v>6.3110999999999997</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.31</v>
+      </c>
+      <c r="E147" s="11"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>285</v>
       </c>
@@ -4018,10 +4165,11 @@
         <v>286</v>
       </c>
       <c r="C148" s="8">
-        <v>5.6890000000000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.69</v>
+      </c>
+      <c r="E148" s="11"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>287</v>
       </c>
@@ -4031,8 +4179,9 @@
       <c r="C149" s="9">
         <v>21.16</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E149" s="11"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>289</v>
       </c>
@@ -4040,10 +4189,11 @@
         <v>290</v>
       </c>
       <c r="C150" s="8">
-        <v>5.4585999999999997</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.46</v>
+      </c>
+      <c r="E150" s="11"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>291</v>
       </c>
@@ -4053,8 +4203,9 @@
       <c r="C151" s="9">
         <v>3.26</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E151" s="11"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>293</v>
       </c>
@@ -4062,10 +4213,11 @@
         <v>294</v>
       </c>
       <c r="C152" s="8">
-        <v>1.9141999999999999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.91</v>
+      </c>
+      <c r="E152" s="11"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>295</v>
       </c>
@@ -4073,10 +4225,11 @@
         <v>296</v>
       </c>
       <c r="C153" s="9">
-        <v>9.0846</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.08</v>
+      </c>
+      <c r="E153" s="11"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>297</v>
       </c>
@@ -4084,10 +4237,11 @@
         <v>298</v>
       </c>
       <c r="C154" s="8">
-        <v>2.3382000000000001</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.34</v>
+      </c>
+      <c r="E154" s="11"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>299</v>
       </c>
@@ -4097,8 +4251,9 @@
       <c r="C155" s="9">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E155" s="11"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>301</v>
       </c>
@@ -4108,8 +4263,9 @@
       <c r="C156" s="8">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E156" s="11"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>303</v>
       </c>
@@ -4119,8 +4275,9 @@
       <c r="C157" s="9">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E157" s="11"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>305</v>
       </c>
@@ -4128,10 +4285,11 @@
         <v>306</v>
       </c>
       <c r="C158" s="8">
-        <v>5.3760000000000003</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.38</v>
+      </c>
+      <c r="E158" s="11"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>307</v>
       </c>
@@ -4141,8 +4299,9 @@
       <c r="C159" s="9">
         <v>22.3</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E159" s="11"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>309</v>
       </c>
@@ -4152,8 +4311,9 @@
       <c r="C160" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E160" s="11"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>311</v>
       </c>
@@ -4163,8 +4323,9 @@
       <c r="C161" s="9">
         <v>6.38</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E161" s="11"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>313</v>
       </c>
@@ -4172,10 +4333,11 @@
         <v>314</v>
       </c>
       <c r="C162" s="8">
-        <v>4.4683999999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.47</v>
+      </c>
+      <c r="E162" s="11"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>315</v>
       </c>
@@ -4185,8 +4347,9 @@
       <c r="C163" s="9">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E163" s="11"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>317</v>
       </c>
@@ -4194,10 +4357,11 @@
         <v>318</v>
       </c>
       <c r="C164" s="8">
-        <v>1.9119999999999999</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.91</v>
+      </c>
+      <c r="E164" s="11"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>319</v>
       </c>
@@ -4205,10 +4369,11 @@
         <v>320</v>
       </c>
       <c r="C165" s="9">
-        <v>1.992</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.99</v>
+      </c>
+      <c r="E165" s="11"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>321</v>
       </c>
@@ -4216,10 +4381,11 @@
         <v>322</v>
       </c>
       <c r="C166" s="8">
-        <v>2.0424000000000002</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.04</v>
+      </c>
+      <c r="E166" s="11"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>323</v>
       </c>
@@ -4229,8 +4395,9 @@
       <c r="C167" s="9">
         <v>76.38</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E167" s="11"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>325</v>
       </c>
@@ -4238,10 +4405,11 @@
         <v>326</v>
       </c>
       <c r="C168" s="8">
-        <v>5.1547999999999998</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.15</v>
+      </c>
+      <c r="E168" s="11"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>327</v>
       </c>
@@ -4249,10 +4417,11 @@
         <v>328</v>
       </c>
       <c r="C169" s="9">
-        <v>1.0975999999999999</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E169" s="11"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>329</v>
       </c>
@@ -4262,8 +4431,9 @@
       <c r="C170" s="8">
         <v>2.58</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E170" s="11"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>331</v>
       </c>
@@ -4271,10 +4441,11 @@
         <v>332</v>
       </c>
       <c r="C171" s="9">
-        <v>10.221399999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="E171" s="11"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>333</v>
       </c>
@@ -4282,10 +4453,11 @@
         <v>334</v>
       </c>
       <c r="C172" s="8">
-        <v>2.5912000000000002</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.59</v>
+      </c>
+      <c r="E172" s="11"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>335</v>
       </c>
@@ -4295,8 +4467,9 @@
       <c r="C173" s="9">
         <v>10.92</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E173" s="11"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>337</v>
       </c>
@@ -4304,10 +4477,11 @@
         <v>338</v>
       </c>
       <c r="C174" s="8">
-        <v>21.814800000000002</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21.81</v>
+      </c>
+      <c r="E174" s="11"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>339</v>
       </c>
@@ -4315,10 +4489,11 @@
         <v>340</v>
       </c>
       <c r="C175" s="9">
-        <v>42.767200000000003</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42.77</v>
+      </c>
+      <c r="E175" s="11"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>341</v>
       </c>
@@ -4328,8 +4503,9 @@
       <c r="C176" s="8">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E176" s="11"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>343</v>
       </c>
@@ -4337,10 +4513,11 @@
         <v>344</v>
       </c>
       <c r="C177" s="9">
-        <v>62.052</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62.05</v>
+      </c>
+      <c r="E177" s="11"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>345</v>
       </c>
@@ -4350,8 +4527,9 @@
       <c r="C178" s="8">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E178" s="11"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>347</v>
       </c>
@@ -4359,10 +4537,11 @@
         <v>348</v>
       </c>
       <c r="C179" s="9">
-        <v>19.3492</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="E179" s="11"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>349</v>
       </c>
@@ -4372,8 +4551,9 @@
       <c r="C180" s="8">
         <v>31.59</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E180" s="11"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>351</v>
       </c>
@@ -4381,10 +4561,11 @@
         <v>352</v>
       </c>
       <c r="C181" s="9">
-        <v>41.515999999999998</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41.52</v>
+      </c>
+      <c r="E181" s="11"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>353</v>
       </c>
@@ -4392,10 +4573,11 @@
         <v>354</v>
       </c>
       <c r="C182" s="8">
-        <v>9.4372000000000007</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.44</v>
+      </c>
+      <c r="E182" s="11"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>355</v>
       </c>
@@ -4405,8 +4587,9 @@
       <c r="C183" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E183" s="11"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>357</v>
       </c>
@@ -4416,8 +4599,9 @@
       <c r="C184" s="8">
         <v>24.72</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E184" s="11"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>359</v>
       </c>
@@ -4427,8 +4611,9 @@
       <c r="C185" s="9">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E185" s="11"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>361</v>
       </c>
@@ -4438,8 +4623,9 @@
       <c r="C186" s="8">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E186" s="11"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>363</v>
       </c>
@@ -4449,8 +4635,9 @@
       <c r="C187" s="9">
         <v>128.46</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E187" s="11"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>365</v>
       </c>
@@ -4458,10 +4645,11 @@
         <v>366</v>
       </c>
       <c r="C188" s="8">
-        <v>39.160800000000002</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="E188" s="11"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>367</v>
       </c>
@@ -4471,8 +4659,9 @@
       <c r="C189" s="9">
         <v>16.21</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E189" s="11"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>369</v>
       </c>
@@ -4482,8 +4671,9 @@
       <c r="C190" s="8">
         <v>7.97</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E190" s="11"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>371</v>
       </c>
@@ -4491,10 +4681,11 @@
         <v>372</v>
       </c>
       <c r="C191" s="9">
-        <v>34.983800000000002</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="E191" s="11"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>373</v>
       </c>
@@ -4504,8 +4695,9 @@
       <c r="C192" s="8">
         <v>73.06</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E192" s="11"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>375</v>
       </c>
@@ -4515,8 +4707,9 @@
       <c r="C193" s="9">
         <v>35.46</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E193" s="11"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>377</v>
       </c>
@@ -4524,10 +4717,11 @@
         <v>378</v>
       </c>
       <c r="C194" s="8">
-        <v>2.6920000000000002</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.69</v>
+      </c>
+      <c r="E194" s="11"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>379</v>
       </c>
@@ -4535,10 +4729,11 @@
         <v>380</v>
       </c>
       <c r="C195" s="9">
-        <v>4.2480000000000002</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.25</v>
+      </c>
+      <c r="E195" s="11"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>381</v>
       </c>
@@ -4546,10 +4741,11 @@
         <v>382</v>
       </c>
       <c r="C196" s="8">
-        <v>2.6928000000000001</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.69</v>
+      </c>
+      <c r="E196" s="11"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>383</v>
       </c>
@@ -4557,10 +4753,11 @@
         <v>384</v>
       </c>
       <c r="C197" s="9">
-        <v>7.0995999999999997</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.1</v>
+      </c>
+      <c r="E197" s="11"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>385</v>
       </c>
@@ -4568,10 +4765,11 @@
         <v>386</v>
       </c>
       <c r="C198" s="8">
-        <v>2.6928000000000001</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.69</v>
+      </c>
+      <c r="E198" s="11"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>387</v>
       </c>
@@ -4581,8 +4779,9 @@
       <c r="C199" s="9">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E199" s="11"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>389</v>
       </c>
@@ -4590,10 +4789,11 @@
         <v>390</v>
       </c>
       <c r="C200" s="8">
-        <v>4.2480000000000002</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.25</v>
+      </c>
+      <c r="E200" s="11"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>391</v>
       </c>
@@ -4601,10 +4801,11 @@
         <v>392</v>
       </c>
       <c r="C201" s="9">
-        <v>3.6415999999999999</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.64</v>
+      </c>
+      <c r="E201" s="11"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>393</v>
       </c>
@@ -4612,10 +4813,11 @@
         <v>394</v>
       </c>
       <c r="C202" s="8">
-        <v>3.4283999999999999</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.43</v>
+      </c>
+      <c r="E202" s="11"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>395</v>
       </c>
@@ -4623,10 +4825,11 @@
         <v>396</v>
       </c>
       <c r="C203" s="9">
-        <v>3.0674000000000001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.07</v>
+      </c>
+      <c r="E203" s="11"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>397</v>
       </c>
@@ -4636,8 +4839,9 @@
       <c r="C204" s="8">
         <v>9.86</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E204" s="11"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>399</v>
       </c>
@@ -4645,10 +4849,11 @@
         <v>400</v>
       </c>
       <c r="C205" s="9">
-        <v>16.767800000000001</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16.77</v>
+      </c>
+      <c r="E205" s="11"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>401</v>
       </c>
@@ -4658,8 +4863,9 @@
       <c r="C206" s="8">
         <v>10.52</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E206" s="11"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>403</v>
       </c>
@@ -4669,8 +4875,9 @@
       <c r="C207" s="9">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E207" s="11"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>405</v>
       </c>
@@ -4678,10 +4885,11 @@
         <v>406</v>
       </c>
       <c r="C208" s="8">
-        <v>1.9998</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="E208" s="11"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>407</v>
       </c>
@@ -4691,8 +4899,9 @@
       <c r="C209" s="9">
         <v>7.66</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E209" s="11"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>409</v>
       </c>
@@ -4702,8 +4911,9 @@
       <c r="C210" s="8">
         <v>7.66</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E210" s="11"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>411</v>
       </c>
@@ -4713,8 +4923,9 @@
       <c r="C211" s="9">
         <v>14.92</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E211" s="11"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>413</v>
       </c>
@@ -4722,10 +4933,11 @@
         <v>414</v>
       </c>
       <c r="C212" s="8">
-        <v>33.868000000000002</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33.869999999999997</v>
+      </c>
+      <c r="E212" s="11"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>415</v>
       </c>
@@ -4733,10 +4945,11 @@
         <v>416</v>
       </c>
       <c r="C213" s="9">
-        <v>4.1340000000000003</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.13</v>
+      </c>
+      <c r="E213" s="11"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>417</v>
       </c>
@@ -4744,10 +4957,11 @@
         <v>418</v>
       </c>
       <c r="C214" s="8">
-        <v>42.990600000000001</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42.99</v>
+      </c>
+      <c r="E214" s="11"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>419</v>
       </c>
@@ -4755,10 +4969,11 @@
         <v>420</v>
       </c>
       <c r="C215" s="9">
-        <v>38.514000000000003</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38.51</v>
+      </c>
+      <c r="E215" s="11"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>421</v>
       </c>
@@ -4768,8 +4983,9 @@
       <c r="C216" s="8">
         <v>55.34</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E216" s="11"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>423</v>
       </c>
@@ -4779,8 +4995,9 @@
       <c r="C217" s="9">
         <v>44.42</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E217" s="11"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>425</v>
       </c>
@@ -4790,8 +5007,9 @@
       <c r="C218" s="8">
         <v>69.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E218" s="11"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>427</v>
       </c>
@@ -4801,8 +5019,9 @@
       <c r="C219" s="9">
         <v>103.04</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E219" s="11"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>429</v>
       </c>
@@ -4812,8 +5031,9 @@
       <c r="C220" s="8">
         <v>48.2</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E220" s="11"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>431</v>
       </c>
@@ -4823,8 +5043,9 @@
       <c r="C221" s="9">
         <v>60.68</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E221" s="11"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>433</v>
       </c>
@@ -4834,8 +5055,9 @@
       <c r="C222" s="8">
         <v>173.52</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E222" s="11"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>435</v>
       </c>
@@ -4845,8 +5067,9 @@
       <c r="C223" s="9">
         <v>681.6</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E223" s="11"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>437</v>
       </c>
@@ -4856,8 +5079,9 @@
       <c r="C224" s="8">
         <v>29</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E224" s="11"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>439</v>
       </c>
@@ -4867,8 +5091,9 @@
       <c r="C225" s="9">
         <v>61</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E225" s="11"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>441</v>
       </c>
@@ -4878,8 +5103,9 @@
       <c r="C226" s="8">
         <v>2.62</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E226" s="11"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>443</v>
       </c>
@@ -4889,8 +5115,9 @@
       <c r="C227" s="9">
         <v>63.28</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E227" s="11"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>445</v>
       </c>
@@ -4900,8 +5127,9 @@
       <c r="C228" s="8">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E228" s="11"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>447</v>
       </c>
@@ -4911,8 +5139,9 @@
       <c r="C229" s="9">
         <v>6.02</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E229" s="11"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>449</v>
       </c>
@@ -4920,10 +5149,11 @@
         <v>450</v>
       </c>
       <c r="C230" s="8">
-        <v>6.4287999999999998</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.43</v>
+      </c>
+      <c r="E230" s="11"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>451</v>
       </c>
@@ -4933,8 +5163,9 @@
       <c r="C231" s="9">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E231" s="11"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>453</v>
       </c>
@@ -4944,8 +5175,9 @@
       <c r="C232" s="8">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E232" s="11"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>455</v>
       </c>
@@ -4953,10 +5185,11 @@
         <v>456</v>
       </c>
       <c r="C233" s="9">
-        <v>1.5696000000000001</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.57</v>
+      </c>
+      <c r="E233" s="11"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>457</v>
       </c>
@@ -4966,8 +5199,9 @@
       <c r="C234" s="8">
         <v>73.239999999999995</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E234" s="11"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>459</v>
       </c>
@@ -4975,10 +5209,11 @@
         <v>460</v>
       </c>
       <c r="C235" s="9">
-        <v>1.3498000000000001</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.35</v>
+      </c>
+      <c r="E235" s="11"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>461</v>
       </c>
@@ -4986,10 +5221,11 @@
         <v>462</v>
       </c>
       <c r="C236" s="8">
-        <v>1.3498000000000001</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.35</v>
+      </c>
+      <c r="E236" s="11"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>463</v>
       </c>
@@ -4997,10 +5233,11 @@
         <v>464</v>
       </c>
       <c r="C237" s="9">
-        <v>1.3498000000000001</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.35</v>
+      </c>
+      <c r="E237" s="11"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>465</v>
       </c>
@@ -5010,8 +5247,9 @@
       <c r="C238" s="8">
         <v>1.56</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E238" s="11"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>467</v>
       </c>
@@ -5021,8 +5259,9 @@
       <c r="C239" s="9">
         <v>1.88</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E239" s="11"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>469</v>
       </c>
@@ -5032,8 +5271,9 @@
       <c r="C240" s="8">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E240" s="11"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>471</v>
       </c>
@@ -5043,8 +5283,9 @@
       <c r="C241" s="9">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E241" s="11"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>473</v>
       </c>
@@ -5052,10 +5293,11 @@
         <v>474</v>
       </c>
       <c r="C242" s="8">
-        <v>2.5339999999999998</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E242" s="11"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>475</v>
       </c>
@@ -5063,10 +5305,11 @@
         <v>476</v>
       </c>
       <c r="C243" s="9">
-        <v>2.5339999999999998</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E243" s="11"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>477</v>
       </c>
@@ -5074,10 +5317,11 @@
         <v>478</v>
       </c>
       <c r="C244" s="8">
-        <v>8.1433999999999997</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.14</v>
+      </c>
+      <c r="E244" s="11"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>479</v>
       </c>
@@ -5085,10 +5329,11 @@
         <v>480</v>
       </c>
       <c r="C245" s="9">
-        <v>10.535</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.54</v>
+      </c>
+      <c r="E245" s="11"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>481</v>
       </c>
@@ -5096,10 +5341,11 @@
         <v>482</v>
       </c>
       <c r="C246" s="8">
-        <v>8.4443999999999999</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.44</v>
+      </c>
+      <c r="E246" s="11"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>483</v>
       </c>
@@ -5109,8 +5355,9 @@
       <c r="C247" s="9">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E247" s="11"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>485</v>
       </c>
@@ -5120,8 +5367,9 @@
       <c r="C248" s="8">
         <v>3.92</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E248" s="11"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>487</v>
       </c>
@@ -5131,8 +5379,9 @@
       <c r="C249" s="9">
         <v>5.42</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E249" s="11"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>489</v>
       </c>
@@ -5142,8 +5391,9 @@
       <c r="C250" s="8">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E250" s="11"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>491</v>
       </c>
@@ -5151,10 +5401,11 @@
         <v>492</v>
       </c>
       <c r="C251" s="9">
-        <v>23.941400000000002</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23.94</v>
+      </c>
+      <c r="E251" s="11"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>493</v>
       </c>
@@ -5162,10 +5413,11 @@
         <v>494</v>
       </c>
       <c r="C252" s="8">
-        <v>3.802</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.8</v>
+      </c>
+      <c r="E252" s="11"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>495</v>
       </c>
@@ -5173,10 +5425,11 @@
         <v>496</v>
       </c>
       <c r="C253" s="9">
-        <v>6.3475999999999999</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.35</v>
+      </c>
+      <c r="E253" s="11"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>497</v>
       </c>
@@ -5186,8 +5439,9 @@
       <c r="C254" s="8">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E254" s="11"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>499</v>
       </c>
@@ -5195,10 +5449,11 @@
         <v>500</v>
       </c>
       <c r="C255" s="9">
-        <v>2.4279999999999999</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="E255" s="11"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>501</v>
       </c>
@@ -5208,8 +5463,9 @@
       <c r="C256" s="8">
         <v>91.16</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E256" s="11"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>503</v>
       </c>
@@ -5217,10 +5473,11 @@
         <v>504</v>
       </c>
       <c r="C257" s="9">
-        <v>3.8239999999999998</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.82</v>
+      </c>
+      <c r="E257" s="11"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>505</v>
       </c>
@@ -5230,8 +5487,9 @@
       <c r="C258" s="8">
         <v>10.48</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E258" s="11"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>507</v>
       </c>
@@ -5241,8 +5499,9 @@
       <c r="C259" s="9">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E259" s="11"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>509</v>
       </c>
@@ -5250,10 +5509,11 @@
         <v>510</v>
       </c>
       <c r="C260" s="8">
-        <v>3.0619999999999998</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.06</v>
+      </c>
+      <c r="E260" s="11"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>511</v>
       </c>
@@ -5263,8 +5523,9 @@
       <c r="C261" s="9">
         <v>75.760000000000005</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E261" s="11"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>513</v>
       </c>
@@ -5272,10 +5533,11 @@
         <v>514</v>
       </c>
       <c r="C262" s="8">
-        <v>43.793999999999997</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43.79</v>
+      </c>
+      <c r="E262" s="11"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>515</v>
       </c>
@@ -5285,8 +5547,9 @@
       <c r="C263" s="9">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E263" s="11"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>517</v>
       </c>
@@ -5296,8 +5559,9 @@
       <c r="C264" s="8">
         <v>8.06</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E264" s="11"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>519</v>
       </c>
@@ -5307,8 +5571,9 @@
       <c r="C265" s="9">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E265" s="11"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>521</v>
       </c>
@@ -5318,8 +5583,9 @@
       <c r="C266" s="8">
         <v>11.04</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E266" s="11"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>523</v>
       </c>
@@ -5327,10 +5593,11 @@
         <v>524</v>
       </c>
       <c r="C267" s="9">
-        <v>1.8129999999999999</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.81</v>
+      </c>
+      <c r="E267" s="11"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>525</v>
       </c>
@@ -5338,10 +5605,11 @@
         <v>526</v>
       </c>
       <c r="C268" s="8">
-        <v>5.7249999999999996</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.73</v>
+      </c>
+      <c r="E268" s="11"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>527</v>
       </c>
@@ -5351,8 +5619,9 @@
       <c r="C269" s="9">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E269" s="11"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
         <v>529</v>
       </c>
@@ -5360,10 +5629,11 @@
         <v>530</v>
       </c>
       <c r="C270" s="8">
-        <v>3.093</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.09</v>
+      </c>
+      <c r="E270" s="11"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>531</v>
       </c>
@@ -5373,8 +5643,9 @@
       <c r="C271" s="9">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E271" s="11"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>533</v>
       </c>
@@ -5384,8 +5655,9 @@
       <c r="C272" s="8">
         <v>4.8600000000000003</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E272" s="11"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>535</v>
       </c>
@@ -5395,8 +5667,9 @@
       <c r="C273" s="9">
         <v>9.82</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E273" s="11"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>537</v>
       </c>
@@ -5406,8 +5679,9 @@
       <c r="C274" s="8">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E274" s="11"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>539</v>
       </c>
@@ -5417,8 +5691,9 @@
       <c r="C275" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E275" s="11"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>541</v>
       </c>
@@ -5426,10 +5701,11 @@
         <v>542</v>
       </c>
       <c r="C276" s="8">
-        <v>20.7956</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20.8</v>
+      </c>
+      <c r="E276" s="11"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>543</v>
       </c>
@@ -5439,8 +5715,9 @@
       <c r="C277" s="9">
         <v>59.8</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E277" s="11"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>545</v>
       </c>
@@ -5448,10 +5725,11 @@
         <v>546</v>
       </c>
       <c r="C278" s="8">
-        <v>3.4340000000000002</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.43</v>
+      </c>
+      <c r="E278" s="11"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>547</v>
       </c>
@@ -5461,8 +5739,9 @@
       <c r="C279" s="9">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E279" s="11"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>549</v>
       </c>
@@ -5470,10 +5749,11 @@
         <v>550</v>
       </c>
       <c r="C280" s="8">
-        <v>1.1319999999999999</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E280" s="11"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>551</v>
       </c>
@@ -5481,10 +5761,11 @@
         <v>552</v>
       </c>
       <c r="C281" s="9">
-        <v>4.6840000000000002</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.68</v>
+      </c>
+      <c r="E281" s="11"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>553</v>
       </c>
@@ -5492,10 +5773,11 @@
         <v>554</v>
       </c>
       <c r="C282" s="8">
-        <v>52.116599999999998</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52.12</v>
+      </c>
+      <c r="E282" s="11"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>555</v>
       </c>
@@ -5503,10 +5785,11 @@
         <v>556</v>
       </c>
       <c r="C283" s="9">
-        <v>57.274999999999999</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57.28</v>
+      </c>
+      <c r="E283" s="11"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>557</v>
       </c>
@@ -5516,8 +5799,9 @@
       <c r="C284" s="8">
         <v>58.48</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E284" s="11"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>559</v>
       </c>
@@ -5527,8 +5811,9 @@
       <c r="C285" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E285" s="11"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>561</v>
       </c>
@@ -5538,8 +5823,9 @@
       <c r="C286" s="8">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E286" s="11"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>563</v>
       </c>
@@ -5547,10 +5833,11 @@
         <v>564</v>
       </c>
       <c r="C287" s="9">
-        <v>20.844999999999999</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20.85</v>
+      </c>
+      <c r="E287" s="11"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>565</v>
       </c>
@@ -5560,8 +5847,9 @@
       <c r="C288" s="8">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E288" s="11"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>567</v>
       </c>
@@ -5569,10 +5857,11 @@
         <v>568</v>
       </c>
       <c r="C289" s="9">
-        <v>29.7166</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29.72</v>
+      </c>
+      <c r="E289" s="11"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>569</v>
       </c>
@@ -5582,8 +5871,9 @@
       <c r="C290" s="8">
         <v>16.38</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E290" s="11"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>571</v>
       </c>
@@ -5593,8 +5883,9 @@
       <c r="C291" s="9">
         <v>56.36</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E291" s="11"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>573</v>
       </c>
@@ -5604,8 +5895,9 @@
       <c r="C292" s="8">
         <v>11.73</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E292" s="11"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
         <v>575</v>
       </c>
@@ -5613,10 +5905,11 @@
         <v>576</v>
       </c>
       <c r="C293" s="9">
-        <v>2.6465999999999998</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.65</v>
+      </c>
+      <c r="E293" s="11"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>577</v>
       </c>
@@ -5624,10 +5917,11 @@
         <v>578</v>
       </c>
       <c r="C294" s="8">
-        <v>2.6446000000000001</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.64</v>
+      </c>
+      <c r="E294" s="11"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
         <v>579</v>
       </c>
@@ -5635,10 +5929,11 @@
         <v>580</v>
       </c>
       <c r="C295" s="9">
-        <v>2.6446000000000001</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.64</v>
+      </c>
+      <c r="E295" s="11"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>581</v>
       </c>
@@ -5648,8 +5943,9 @@
       <c r="C296" s="8">
         <v>6.82</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E296" s="11"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
         <v>583</v>
       </c>
@@ -5659,8 +5955,9 @@
       <c r="C297" s="9">
         <v>29.74</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E297" s="11"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>585</v>
       </c>
@@ -5670,8 +5967,9 @@
       <c r="C298" s="8">
         <v>9.58</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E298" s="11"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
         <v>587</v>
       </c>
@@ -5681,8 +5979,9 @@
       <c r="C299" s="9">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E299" s="11"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>589</v>
       </c>
@@ -5692,8 +5991,9 @@
       <c r="C300" s="8">
         <v>45.6</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E300" s="11"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
         <v>591</v>
       </c>
@@ -5703,8 +6003,9 @@
       <c r="C301" s="9">
         <v>70.56</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E301" s="11"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>593</v>
       </c>
@@ -5714,8 +6015,9 @@
       <c r="C302" s="8">
         <v>68.12</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E302" s="11"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>595</v>
       </c>
@@ -5725,8 +6027,9 @@
       <c r="C303" s="9">
         <v>68.739999999999995</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E303" s="11"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>597</v>
       </c>
@@ -5734,10 +6037,11 @@
         <v>598</v>
       </c>
       <c r="C304" s="8">
-        <v>3.6819999999999999</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.68</v>
+      </c>
+      <c r="E304" s="11"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>599</v>
       </c>
@@ -5747,8 +6051,9 @@
       <c r="C305" s="9">
         <v>73.34</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E305" s="11"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>601</v>
       </c>
@@ -5758,8 +6063,9 @@
       <c r="C306" s="8">
         <v>101.46</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E306" s="11"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
         <v>603</v>
       </c>
@@ -5769,8 +6075,9 @@
       <c r="C307" s="9">
         <v>167.7</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E307" s="11"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>605</v>
       </c>
@@ -5780,8 +6087,9 @@
       <c r="C308" s="8">
         <v>147.58000000000001</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E308" s="11"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
         <v>607</v>
       </c>
@@ -5791,8 +6099,9 @@
       <c r="C309" s="9">
         <v>22.52</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E309" s="11"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>609</v>
       </c>
@@ -5802,8 +6111,9 @@
       <c r="C310" s="8">
         <v>232.86</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E310" s="11"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
         <v>611</v>
       </c>
@@ -5811,10 +6121,11 @@
         <v>612</v>
       </c>
       <c r="C311" s="9">
-        <v>58.851999999999997</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58.85</v>
+      </c>
+      <c r="E311" s="11"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>613</v>
       </c>
@@ -5822,10 +6133,11 @@
         <v>614</v>
       </c>
       <c r="C312" s="8">
-        <v>56.363999999999997</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56.36</v>
+      </c>
+      <c r="E312" s="11"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
         <v>615</v>
       </c>
@@ -5835,8 +6147,9 @@
       <c r="C313" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E313" s="11"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>617</v>
       </c>
@@ -5846,8 +6159,9 @@
       <c r="C314" s="8">
         <v>15.72</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E314" s="11"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
         <v>619</v>
       </c>
@@ -5855,10 +6169,11 @@
         <v>620</v>
       </c>
       <c r="C315" s="9">
-        <v>2.6065999999999998</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.61</v>
+      </c>
+      <c r="E315" s="11"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>621</v>
       </c>
@@ -5866,8 +6181,9 @@
         <v>622</v>
       </c>
       <c r="C316" s="8">
-        <v>1.5713999999999999</v>
-      </c>
+        <v>1.57</v>
+      </c>
+      <c r="E316" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PRUEBA.xlsx
+++ b/PRUEBA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9c7db393410a0e1/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{B48EAC58-9B7D-4E80-8899-08CE2929E675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC29BD6E-AE4E-4402-B15E-136F4B918835}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{B48EAC58-9B7D-4E80-8899-08CE2929E675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E197126-3AD8-45C9-832B-EF17E0E0FCAD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89B8ABE8-3403-4683-9B1D-5A15CBE66AC0}"/>
   </bookViews>
@@ -1917,7 +1917,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -2016,11 +2017,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="7" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="2" fillId="2" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="6" xr:uid="{A78816F5-C3BF-487B-BC2E-5A29C82C8E47}"/>
@@ -2370,14 +2371,14 @@
   <dimension ref="A1:E316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="10"/>
+    <col min="3" max="3" width="11.5546875" style="11"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2388,7 +2389,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>623</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2402,11 +2403,11 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>5.7</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="11"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
@@ -2415,11 +2416,11 @@
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>10.42</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -2428,11 +2429,11 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>2.2599999999999998</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="11"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
@@ -2441,11 +2442,11 @@
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>12.94</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="11"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -2454,11 +2455,11 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>22.46</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
@@ -2467,11 +2468,11 @@
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <v>16.03</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -2480,11 +2481,11 @@
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>2.1</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -2493,11 +2494,11 @@
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="10">
         <v>5.5</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -2506,11 +2507,11 @@
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>26</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -2519,11 +2520,11 @@
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="10">
         <v>19.21</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -2532,10 +2533,10 @@
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>20.96</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -2544,10 +2545,10 @@
       <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="10">
         <v>18.600000000000001</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -2556,10 +2557,10 @@
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>74.569999999999993</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -2568,10 +2569,10 @@
       <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="10">
         <v>8.35</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -2580,10 +2581,10 @@
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>35.42</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -2592,10 +2593,10 @@
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="10">
         <v>36</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -2604,10 +2605,10 @@
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>174.08</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -2616,10 +2617,10 @@
       <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="10">
         <v>5.78</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -2628,10 +2629,10 @@
       <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>12.9</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -2640,10 +2641,10 @@
       <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="10">
         <v>5.94</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -2652,10 +2653,10 @@
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <v>28.82</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -2664,10 +2665,10 @@
       <c r="B23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="10">
         <v>29.72</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -2676,10 +2677,10 @@
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="9">
         <v>14.19</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -2688,10 +2689,10 @@
       <c r="B25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="10">
         <v>0.65</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -2700,10 +2701,10 @@
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="9">
         <v>8.18</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -2712,10 +2713,10 @@
       <c r="B27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="10">
         <v>1.52</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -2724,10 +2725,10 @@
       <c r="B28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="9">
         <v>1.31</v>
       </c>
-      <c r="E28" s="11"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -2736,10 +2737,10 @@
       <c r="B29" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="10">
         <v>1.04</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
@@ -2748,10 +2749,10 @@
       <c r="B30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="9">
         <v>1.94</v>
       </c>
-      <c r="E30" s="11"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
@@ -2760,10 +2761,10 @@
       <c r="B31" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="10">
         <v>0.9</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
@@ -2772,10 +2773,10 @@
       <c r="B32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <v>1.68</v>
       </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
@@ -2784,10 +2785,10 @@
       <c r="B33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="10">
         <v>0.98</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
@@ -2796,10 +2797,10 @@
       <c r="B34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="9">
         <v>0.93</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
@@ -2808,10 +2809,10 @@
       <c r="B35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="10">
         <v>1.65</v>
       </c>
-      <c r="E35" s="11"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
@@ -2820,10 +2821,10 @@
       <c r="B36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="9">
         <v>18.36</v>
       </c>
-      <c r="E36" s="11"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2832,10 +2833,10 @@
       <c r="B37" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="10">
         <v>52.7</v>
       </c>
-      <c r="E37" s="11"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
@@ -2844,10 +2845,10 @@
       <c r="B38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="9">
         <v>141.69999999999999</v>
       </c>
-      <c r="E38" s="11"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
@@ -2856,10 +2857,10 @@
       <c r="B39" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="10">
         <v>116.6</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
@@ -2868,10 +2869,10 @@
       <c r="B40" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="9">
         <v>254.6</v>
       </c>
-      <c r="E40" s="11"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
@@ -2880,10 +2881,10 @@
       <c r="B41" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="10">
         <v>100.74</v>
       </c>
-      <c r="E41" s="11"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
@@ -2892,10 +2893,10 @@
       <c r="B42" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="9">
         <v>186.76</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
@@ -2904,10 +2905,10 @@
       <c r="B43" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="9" t="e">
+      <c r="C43" s="10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E43" s="11"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
@@ -2916,10 +2917,10 @@
       <c r="B44" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="9">
         <v>9.2799999999999994</v>
       </c>
-      <c r="E44" s="11"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
@@ -2928,10 +2929,10 @@
       <c r="B45" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="10">
         <v>13.59</v>
       </c>
-      <c r="E45" s="11"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -2940,10 +2941,10 @@
       <c r="B46" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="9">
         <v>26.15</v>
       </c>
-      <c r="E46" s="11"/>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
@@ -2952,10 +2953,10 @@
       <c r="B47" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="10">
         <v>11.92</v>
       </c>
-      <c r="E47" s="11"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
@@ -2964,10 +2965,10 @@
       <c r="B48" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="9">
         <v>84.06</v>
       </c>
-      <c r="E48" s="11"/>
+      <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
@@ -2976,10 +2977,10 @@
       <c r="B49" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="10">
         <v>10.34</v>
       </c>
-      <c r="E49" s="11"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -2988,10 +2989,10 @@
       <c r="B50" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="9">
         <v>46.4</v>
       </c>
-      <c r="E50" s="11"/>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
@@ -3000,10 +3001,10 @@
       <c r="B51" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="10">
         <v>7.92</v>
       </c>
-      <c r="E51" s="11"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
@@ -3012,10 +3013,10 @@
       <c r="B52" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="9">
         <v>1.55</v>
       </c>
-      <c r="E52" s="11"/>
+      <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3024,10 +3025,10 @@
       <c r="B53" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="10">
         <v>10.25</v>
       </c>
-      <c r="E53" s="11"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
@@ -3036,10 +3037,10 @@
       <c r="B54" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="9">
         <v>5.44</v>
       </c>
-      <c r="E54" s="11"/>
+      <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
@@ -3048,10 +3049,10 @@
       <c r="B55" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="10">
         <v>15.6</v>
       </c>
-      <c r="E55" s="11"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
@@ -3060,10 +3061,10 @@
       <c r="B56" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="9">
         <v>6.68</v>
       </c>
-      <c r="E56" s="11"/>
+      <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
@@ -3072,10 +3073,10 @@
       <c r="B57" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="10">
         <v>13.5</v>
       </c>
-      <c r="E57" s="11"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
@@ -3084,10 +3085,10 @@
       <c r="B58" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="9">
         <v>15.37</v>
       </c>
-      <c r="E58" s="11"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
@@ -3096,10 +3097,10 @@
       <c r="B59" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="10">
         <v>80.400000000000006</v>
       </c>
-      <c r="E59" s="11"/>
+      <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
@@ -3108,10 +3109,10 @@
       <c r="B60" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="9">
         <v>13.7</v>
       </c>
-      <c r="E60" s="11"/>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
@@ -3120,10 +3121,10 @@
       <c r="B61" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="10">
         <v>51.96</v>
       </c>
-      <c r="E61" s="11"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
@@ -3132,10 +3133,10 @@
       <c r="B62" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="9">
         <v>46.9</v>
       </c>
-      <c r="E62" s="11"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
@@ -3144,10 +3145,10 @@
       <c r="B63" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="10">
         <v>63</v>
       </c>
-      <c r="E63" s="11"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
@@ -3156,10 +3157,10 @@
       <c r="B64" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="9">
         <v>102</v>
       </c>
-      <c r="E64" s="11"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3168,10 +3169,10 @@
       <c r="B65" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="10">
         <v>40.57</v>
       </c>
-      <c r="E65" s="11"/>
+      <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
@@ -3180,10 +3181,10 @@
       <c r="B66" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="9">
         <v>20.58</v>
       </c>
-      <c r="E66" s="11"/>
+      <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
@@ -3192,10 +3193,10 @@
       <c r="B67" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="10">
         <v>55.8</v>
       </c>
-      <c r="E67" s="11"/>
+      <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
@@ -3204,10 +3205,10 @@
       <c r="B68" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="9">
         <v>52.32</v>
       </c>
-      <c r="E68" s="11"/>
+      <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
@@ -3216,10 +3217,10 @@
       <c r="B69" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="10">
         <v>39.1</v>
       </c>
-      <c r="E69" s="11"/>
+      <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
@@ -3228,10 +3229,10 @@
       <c r="B70" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="9">
         <v>28.44</v>
       </c>
-      <c r="E70" s="11"/>
+      <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
@@ -3240,10 +3241,10 @@
       <c r="B71" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="10">
         <v>0.5</v>
       </c>
-      <c r="E71" s="11"/>
+      <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
@@ -3252,10 +3253,10 @@
       <c r="B72" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="9">
         <v>110.94</v>
       </c>
-      <c r="E72" s="11"/>
+      <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
@@ -3264,10 +3265,10 @@
       <c r="B73" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="10">
         <v>79.599999999999994</v>
       </c>
-      <c r="E73" s="11"/>
+      <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
@@ -3276,10 +3277,10 @@
       <c r="B74" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="9">
         <v>59.47</v>
       </c>
-      <c r="E74" s="11"/>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
@@ -3288,10 +3289,10 @@
       <c r="B75" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="10">
         <v>42.34</v>
       </c>
-      <c r="E75" s="11"/>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
@@ -3300,10 +3301,10 @@
       <c r="B76" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="9">
         <v>71.78</v>
       </c>
-      <c r="E76" s="11"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
@@ -3312,10 +3313,10 @@
       <c r="B77" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="10">
         <v>290</v>
       </c>
-      <c r="E77" s="11"/>
+      <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
@@ -3324,10 +3325,10 @@
       <c r="B78" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="9">
         <v>3.8</v>
       </c>
-      <c r="E78" s="11"/>
+      <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
@@ -3336,10 +3337,10 @@
       <c r="B79" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="10">
         <v>3.8</v>
       </c>
-      <c r="E79" s="11"/>
+      <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
@@ -3348,10 +3349,10 @@
       <c r="B80" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="9">
         <v>19.899999999999999</v>
       </c>
-      <c r="E80" s="11"/>
+      <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
@@ -3360,10 +3361,10 @@
       <c r="B81" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="10">
         <v>12</v>
       </c>
-      <c r="E81" s="11"/>
+      <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
@@ -3372,10 +3373,10 @@
       <c r="B82" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="9">
         <v>83.12</v>
       </c>
-      <c r="E82" s="11"/>
+      <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
@@ -3384,10 +3385,10 @@
       <c r="B83" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="10">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E83" s="11"/>
+      <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
@@ -3396,10 +3397,10 @@
       <c r="B84" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="9">
         <v>4</v>
       </c>
-      <c r="E84" s="11"/>
+      <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
@@ -3408,10 +3409,10 @@
       <c r="B85" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="10">
         <v>3.59</v>
       </c>
-      <c r="E85" s="11"/>
+      <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
@@ -3420,10 +3421,10 @@
       <c r="B86" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="9">
         <v>34.380000000000003</v>
       </c>
-      <c r="E86" s="11"/>
+      <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
@@ -3432,10 +3433,10 @@
       <c r="B87" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="10">
         <v>24.44</v>
       </c>
-      <c r="E87" s="11"/>
+      <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
@@ -3444,10 +3445,10 @@
       <c r="B88" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="9">
         <v>12.98</v>
       </c>
-      <c r="E88" s="11"/>
+      <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
@@ -3456,10 +3457,10 @@
       <c r="B89" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="10">
         <v>15.22</v>
       </c>
-      <c r="E89" s="11"/>
+      <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
@@ -3468,10 +3469,10 @@
       <c r="B90" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="9">
         <v>9.56</v>
       </c>
-      <c r="E90" s="11"/>
+      <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
@@ -3480,10 +3481,10 @@
       <c r="B91" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="10">
         <v>75.239999999999995</v>
       </c>
-      <c r="E91" s="11"/>
+      <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
@@ -3492,10 +3493,10 @@
       <c r="B92" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="9">
         <v>47.92</v>
       </c>
-      <c r="E92" s="11"/>
+      <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
@@ -3504,10 +3505,10 @@
       <c r="B93" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="10">
         <v>5.29</v>
       </c>
-      <c r="E93" s="11"/>
+      <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
@@ -3516,10 +3517,10 @@
       <c r="B94" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="9">
         <v>64.8</v>
       </c>
-      <c r="E94" s="11"/>
+      <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
@@ -3528,10 +3529,10 @@
       <c r="B95" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="10">
         <v>64</v>
       </c>
-      <c r="E95" s="11"/>
+      <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
@@ -3540,10 +3541,10 @@
       <c r="B96" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="9">
         <v>7747.39</v>
       </c>
-      <c r="E96" s="11"/>
+      <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
@@ -3552,10 +3553,10 @@
       <c r="B97" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="10">
         <v>65.3</v>
       </c>
-      <c r="E97" s="11"/>
+      <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
@@ -3564,10 +3565,10 @@
       <c r="B98" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="9">
         <v>56.06</v>
       </c>
-      <c r="E98" s="11"/>
+      <c r="E98" s="7"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
@@ -3576,10 +3577,10 @@
       <c r="B99" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="10">
         <v>54.28</v>
       </c>
-      <c r="E99" s="11"/>
+      <c r="E99" s="7"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
@@ -3588,10 +3589,10 @@
       <c r="B100" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="9">
         <v>104.34</v>
       </c>
-      <c r="E100" s="11"/>
+      <c r="E100" s="7"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
@@ -3600,10 +3601,10 @@
       <c r="B101" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="10">
         <v>0</v>
       </c>
-      <c r="E101" s="11"/>
+      <c r="E101" s="7"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
@@ -3612,10 +3613,10 @@
       <c r="B102" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="9">
         <v>112.28</v>
       </c>
-      <c r="E102" s="11"/>
+      <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
@@ -3624,10 +3625,10 @@
       <c r="B103" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="10">
         <v>47.78</v>
       </c>
-      <c r="E103" s="11"/>
+      <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
@@ -3636,10 +3637,10 @@
       <c r="B104" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="9">
         <v>25.38</v>
       </c>
-      <c r="E104" s="11"/>
+      <c r="E104" s="7"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
@@ -3648,10 +3649,10 @@
       <c r="B105" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="10">
         <v>13.53</v>
       </c>
-      <c r="E105" s="11"/>
+      <c r="E105" s="7"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
@@ -3660,10 +3661,10 @@
       <c r="B106" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="9">
         <v>1.48</v>
       </c>
-      <c r="E106" s="11"/>
+      <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
@@ -3672,10 +3673,10 @@
       <c r="B107" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="10">
         <v>88.44</v>
       </c>
-      <c r="E107" s="11"/>
+      <c r="E107" s="7"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
@@ -3684,10 +3685,10 @@
       <c r="B108" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="9">
         <v>2.36</v>
       </c>
-      <c r="E108" s="11"/>
+      <c r="E108" s="7"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
@@ -3696,10 +3697,10 @@
       <c r="B109" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="10">
         <v>19.600000000000001</v>
       </c>
-      <c r="E109" s="11"/>
+      <c r="E109" s="7"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
@@ -3708,10 +3709,10 @@
       <c r="B110" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="9">
         <v>13.66</v>
       </c>
-      <c r="E110" s="11"/>
+      <c r="E110" s="7"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
@@ -3720,10 +3721,10 @@
       <c r="B111" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="10">
         <v>14.08</v>
       </c>
-      <c r="E111" s="11"/>
+      <c r="E111" s="7"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
@@ -3732,10 +3733,10 @@
       <c r="B112" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="9">
         <v>6.43</v>
       </c>
-      <c r="E112" s="11"/>
+      <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
@@ -3744,10 +3745,10 @@
       <c r="B113" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="10">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E113" s="11"/>
+      <c r="E113" s="7"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
@@ -3756,10 +3757,10 @@
       <c r="B114" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="9">
         <v>7.98</v>
       </c>
-      <c r="E114" s="11"/>
+      <c r="E114" s="7"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
@@ -3768,10 +3769,10 @@
       <c r="B115" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="10">
         <v>66</v>
       </c>
-      <c r="E115" s="11"/>
+      <c r="E115" s="7"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
@@ -3780,10 +3781,10 @@
       <c r="B116" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116" s="9">
         <v>66</v>
       </c>
-      <c r="E116" s="11"/>
+      <c r="E116" s="7"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
@@ -3792,10 +3793,10 @@
       <c r="B117" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="10">
         <v>39.299999999999997</v>
       </c>
-      <c r="E117" s="11"/>
+      <c r="E117" s="7"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
@@ -3804,10 +3805,10 @@
       <c r="B118" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C118" s="9">
         <v>12.29</v>
       </c>
-      <c r="E118" s="11"/>
+      <c r="E118" s="7"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
@@ -3816,10 +3817,10 @@
       <c r="B119" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C119" s="10">
         <v>7.79</v>
       </c>
-      <c r="E119" s="11"/>
+      <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
@@ -3828,10 +3829,10 @@
       <c r="B120" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120" s="9">
         <v>35.04</v>
       </c>
-      <c r="E120" s="11"/>
+      <c r="E120" s="7"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
@@ -3840,10 +3841,10 @@
       <c r="B121" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C121" s="10">
         <v>8.1</v>
       </c>
-      <c r="E121" s="11"/>
+      <c r="E121" s="7"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
@@ -3852,10 +3853,10 @@
       <c r="B122" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C122" s="9">
         <v>26.44</v>
       </c>
-      <c r="E122" s="11"/>
+      <c r="E122" s="7"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
@@ -3864,10 +3865,10 @@
       <c r="B123" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C123" s="10">
         <v>2.21</v>
       </c>
-      <c r="E123" s="11"/>
+      <c r="E123" s="7"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
@@ -3876,10 +3877,10 @@
       <c r="B124" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C124" s="8">
+      <c r="C124" s="9">
         <v>2.77</v>
       </c>
-      <c r="E124" s="11"/>
+      <c r="E124" s="7"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
@@ -3888,10 +3889,10 @@
       <c r="B125" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C125" s="10">
         <v>10.220000000000001</v>
       </c>
-      <c r="E125" s="11"/>
+      <c r="E125" s="7"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
@@ -3900,10 +3901,10 @@
       <c r="B126" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C126" s="9">
         <v>29.62</v>
       </c>
-      <c r="E126" s="11"/>
+      <c r="E126" s="7"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
@@ -3912,10 +3913,10 @@
       <c r="B127" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C127" s="9">
+      <c r="C127" s="10">
         <v>62.52</v>
       </c>
-      <c r="E127" s="11"/>
+      <c r="E127" s="7"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
@@ -3924,10 +3925,10 @@
       <c r="B128" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C128" s="8">
+      <c r="C128" s="9">
         <v>13.3</v>
       </c>
-      <c r="E128" s="11"/>
+      <c r="E128" s="7"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
@@ -3936,10 +3937,10 @@
       <c r="B129" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C129" s="9">
+      <c r="C129" s="10">
         <v>9.83</v>
       </c>
-      <c r="E129" s="11"/>
+      <c r="E129" s="7"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
@@ -3948,10 +3949,10 @@
       <c r="B130" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C130" s="8">
+      <c r="C130" s="9">
         <v>9.83</v>
       </c>
-      <c r="E130" s="11"/>
+      <c r="E130" s="7"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
@@ -3960,10 +3961,10 @@
       <c r="B131" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C131" s="9">
+      <c r="C131" s="10">
         <v>2.36</v>
       </c>
-      <c r="E131" s="11"/>
+      <c r="E131" s="7"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
@@ -3972,10 +3973,10 @@
       <c r="B132" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C132" s="8">
+      <c r="C132" s="9">
         <v>27.92</v>
       </c>
-      <c r="E132" s="11"/>
+      <c r="E132" s="7"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
@@ -3984,10 +3985,10 @@
       <c r="B133" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C133" s="9">
+      <c r="C133" s="10">
         <v>11.92</v>
       </c>
-      <c r="E133" s="11"/>
+      <c r="E133" s="7"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
@@ -3996,10 +3997,10 @@
       <c r="B134" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C134" s="9">
         <v>2.84</v>
       </c>
-      <c r="E134" s="11"/>
+      <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
@@ -4008,10 +4009,10 @@
       <c r="B135" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C135" s="9">
+      <c r="C135" s="10">
         <v>6.4</v>
       </c>
-      <c r="E135" s="11"/>
+      <c r="E135" s="7"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
@@ -4020,10 +4021,10 @@
       <c r="B136" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C136" s="8">
+      <c r="C136" s="9">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E136" s="11"/>
+      <c r="E136" s="7"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
@@ -4032,10 +4033,10 @@
       <c r="B137" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C137" s="9">
+      <c r="C137" s="10">
         <v>4.2</v>
       </c>
-      <c r="E137" s="11"/>
+      <c r="E137" s="7"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
@@ -4044,10 +4045,10 @@
       <c r="B138" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C138" s="8">
+      <c r="C138" s="9">
         <v>13.8</v>
       </c>
-      <c r="E138" s="11"/>
+      <c r="E138" s="7"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
@@ -4056,10 +4057,10 @@
       <c r="B139" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C139" s="9">
+      <c r="C139" s="10">
         <v>6.03</v>
       </c>
-      <c r="E139" s="11"/>
+      <c r="E139" s="7"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
@@ -4068,10 +4069,10 @@
       <c r="B140" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C140" s="8">
+      <c r="C140" s="9">
         <v>4.05</v>
       </c>
-      <c r="E140" s="11"/>
+      <c r="E140" s="7"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
@@ -4080,10 +4081,10 @@
       <c r="B141" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C141" s="9">
+      <c r="C141" s="10">
         <v>7.86</v>
       </c>
-      <c r="E141" s="11"/>
+      <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
@@ -4092,10 +4093,10 @@
       <c r="B142" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C142" s="8">
+      <c r="C142" s="9">
         <v>7.65</v>
       </c>
-      <c r="E142" s="11"/>
+      <c r="E142" s="7"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
@@ -4104,10 +4105,10 @@
       <c r="B143" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C143" s="9">
+      <c r="C143" s="10">
         <v>6.03</v>
       </c>
-      <c r="E143" s="11"/>
+      <c r="E143" s="7"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
@@ -4116,10 +4117,10 @@
       <c r="B144" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C144" s="8">
+      <c r="C144" s="9">
         <v>6.3</v>
       </c>
-      <c r="E144" s="11"/>
+      <c r="E144" s="7"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
@@ -4128,10 +4129,10 @@
       <c r="B145" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C145" s="9">
+      <c r="C145" s="10">
         <v>13.05</v>
       </c>
-      <c r="E145" s="11"/>
+      <c r="E145" s="7"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
@@ -4140,10 +4141,10 @@
       <c r="B146" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C146" s="8">
+      <c r="C146" s="9">
         <v>3.86</v>
       </c>
-      <c r="E146" s="11"/>
+      <c r="E146" s="7"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
@@ -4152,10 +4153,10 @@
       <c r="B147" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C147" s="9">
+      <c r="C147" s="10">
         <v>6.31</v>
       </c>
-      <c r="E147" s="11"/>
+      <c r="E147" s="7"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
@@ -4164,10 +4165,10 @@
       <c r="B148" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C148" s="8">
+      <c r="C148" s="9">
         <v>5.69</v>
       </c>
-      <c r="E148" s="11"/>
+      <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
@@ -4176,10 +4177,10 @@
       <c r="B149" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C149" s="9">
+      <c r="C149" s="10">
         <v>21.16</v>
       </c>
-      <c r="E149" s="11"/>
+      <c r="E149" s="7"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
@@ -4188,10 +4189,10 @@
       <c r="B150" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C150" s="8">
+      <c r="C150" s="9">
         <v>5.46</v>
       </c>
-      <c r="E150" s="11"/>
+      <c r="E150" s="7"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
@@ -4200,10 +4201,10 @@
       <c r="B151" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C151" s="9">
+      <c r="C151" s="10">
         <v>3.26</v>
       </c>
-      <c r="E151" s="11"/>
+      <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
@@ -4212,10 +4213,10 @@
       <c r="B152" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C152" s="8">
+      <c r="C152" s="9">
         <v>1.91</v>
       </c>
-      <c r="E152" s="11"/>
+      <c r="E152" s="7"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
@@ -4224,10 +4225,10 @@
       <c r="B153" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C153" s="9">
+      <c r="C153" s="10">
         <v>9.08</v>
       </c>
-      <c r="E153" s="11"/>
+      <c r="E153" s="7"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -4236,10 +4237,10 @@
       <c r="B154" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C154" s="8">
+      <c r="C154" s="9">
         <v>2.34</v>
       </c>
-      <c r="E154" s="11"/>
+      <c r="E154" s="7"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
@@ -4248,10 +4249,10 @@
       <c r="B155" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C155" s="9">
+      <c r="C155" s="10">
         <v>3.58</v>
       </c>
-      <c r="E155" s="11"/>
+      <c r="E155" s="7"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
@@ -4260,10 +4261,10 @@
       <c r="B156" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C156" s="8">
+      <c r="C156" s="9">
         <v>2.4</v>
       </c>
-      <c r="E156" s="11"/>
+      <c r="E156" s="7"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
@@ -4272,10 +4273,10 @@
       <c r="B157" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C157" s="9">
+      <c r="C157" s="10">
         <v>4.3</v>
       </c>
-      <c r="E157" s="11"/>
+      <c r="E157" s="7"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
@@ -4284,10 +4285,10 @@
       <c r="B158" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C158" s="8">
+      <c r="C158" s="9">
         <v>5.38</v>
       </c>
-      <c r="E158" s="11"/>
+      <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
@@ -4296,10 +4297,10 @@
       <c r="B159" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C159" s="9">
+      <c r="C159" s="10">
         <v>22.3</v>
       </c>
-      <c r="E159" s="11"/>
+      <c r="E159" s="7"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
@@ -4308,10 +4309,10 @@
       <c r="B160" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C160" s="8">
+      <c r="C160" s="9">
         <v>5</v>
       </c>
-      <c r="E160" s="11"/>
+      <c r="E160" s="7"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
@@ -4320,10 +4321,10 @@
       <c r="B161" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C161" s="9">
+      <c r="C161" s="10">
         <v>6.38</v>
       </c>
-      <c r="E161" s="11"/>
+      <c r="E161" s="7"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
@@ -4332,10 +4333,10 @@
       <c r="B162" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C162" s="8">
+      <c r="C162" s="9">
         <v>4.47</v>
       </c>
-      <c r="E162" s="11"/>
+      <c r="E162" s="7"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
@@ -4344,10 +4345,10 @@
       <c r="B163" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C163" s="9">
+      <c r="C163" s="10">
         <v>3.4</v>
       </c>
-      <c r="E163" s="11"/>
+      <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
@@ -4356,10 +4357,10 @@
       <c r="B164" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C164" s="8">
+      <c r="C164" s="9">
         <v>1.91</v>
       </c>
-      <c r="E164" s="11"/>
+      <c r="E164" s="7"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
@@ -4368,10 +4369,10 @@
       <c r="B165" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C165" s="9">
+      <c r="C165" s="10">
         <v>1.99</v>
       </c>
-      <c r="E165" s="11"/>
+      <c r="E165" s="7"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
@@ -4380,10 +4381,10 @@
       <c r="B166" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C166" s="8">
+      <c r="C166" s="9">
         <v>2.04</v>
       </c>
-      <c r="E166" s="11"/>
+      <c r="E166" s="7"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
@@ -4392,10 +4393,10 @@
       <c r="B167" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C167" s="9">
+      <c r="C167" s="10">
         <v>76.38</v>
       </c>
-      <c r="E167" s="11"/>
+      <c r="E167" s="7"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
@@ -4404,10 +4405,10 @@
       <c r="B168" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C168" s="8">
+      <c r="C168" s="9">
         <v>5.15</v>
       </c>
-      <c r="E168" s="11"/>
+      <c r="E168" s="7"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
@@ -4416,10 +4417,10 @@
       <c r="B169" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C169" s="9">
+      <c r="C169" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E169" s="11"/>
+      <c r="E169" s="7"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
@@ -4428,10 +4429,10 @@
       <c r="B170" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C170" s="8">
+      <c r="C170" s="9">
         <v>2.58</v>
       </c>
-      <c r="E170" s="11"/>
+      <c r="E170" s="7"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
@@ -4440,10 +4441,10 @@
       <c r="B171" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C171" s="9">
+      <c r="C171" s="10">
         <v>10.220000000000001</v>
       </c>
-      <c r="E171" s="11"/>
+      <c r="E171" s="7"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
@@ -4452,10 +4453,10 @@
       <c r="B172" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C172" s="8">
+      <c r="C172" s="9">
         <v>2.59</v>
       </c>
-      <c r="E172" s="11"/>
+      <c r="E172" s="7"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
@@ -4464,10 +4465,10 @@
       <c r="B173" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C173" s="9">
+      <c r="C173" s="10">
         <v>10.92</v>
       </c>
-      <c r="E173" s="11"/>
+      <c r="E173" s="7"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
@@ -4476,10 +4477,10 @@
       <c r="B174" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C174" s="8">
+      <c r="C174" s="9">
         <v>21.81</v>
       </c>
-      <c r="E174" s="11"/>
+      <c r="E174" s="7"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
@@ -4488,10 +4489,10 @@
       <c r="B175" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C175" s="9">
+      <c r="C175" s="10">
         <v>42.77</v>
       </c>
-      <c r="E175" s="11"/>
+      <c r="E175" s="7"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
@@ -4500,10 +4501,10 @@
       <c r="B176" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C176" s="8">
+      <c r="C176" s="9">
         <v>9.43</v>
       </c>
-      <c r="E176" s="11"/>
+      <c r="E176" s="7"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
@@ -4512,10 +4513,10 @@
       <c r="B177" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C177" s="9">
+      <c r="C177" s="10">
         <v>62.05</v>
       </c>
-      <c r="E177" s="11"/>
+      <c r="E177" s="7"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
@@ -4524,10 +4525,10 @@
       <c r="B178" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C178" s="8">
+      <c r="C178" s="9">
         <v>19.600000000000001</v>
       </c>
-      <c r="E178" s="11"/>
+      <c r="E178" s="7"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
@@ -4536,10 +4537,10 @@
       <c r="B179" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C179" s="9">
+      <c r="C179" s="10">
         <v>19.350000000000001</v>
       </c>
-      <c r="E179" s="11"/>
+      <c r="E179" s="7"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
@@ -4548,10 +4549,10 @@
       <c r="B180" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C180" s="8">
+      <c r="C180" s="9">
         <v>31.59</v>
       </c>
-      <c r="E180" s="11"/>
+      <c r="E180" s="7"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
@@ -4560,10 +4561,10 @@
       <c r="B181" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C181" s="9">
+      <c r="C181" s="10">
         <v>41.52</v>
       </c>
-      <c r="E181" s="11"/>
+      <c r="E181" s="7"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
@@ -4572,10 +4573,10 @@
       <c r="B182" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C182" s="8">
+      <c r="C182" s="9">
         <v>9.44</v>
       </c>
-      <c r="E182" s="11"/>
+      <c r="E182" s="7"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
@@ -4584,10 +4585,10 @@
       <c r="B183" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C183" s="9">
+      <c r="C183" s="10">
         <v>6</v>
       </c>
-      <c r="E183" s="11"/>
+      <c r="E183" s="7"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
@@ -4596,10 +4597,10 @@
       <c r="B184" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C184" s="8">
+      <c r="C184" s="9">
         <v>24.72</v>
       </c>
-      <c r="E184" s="11"/>
+      <c r="E184" s="7"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
@@ -4608,10 +4609,10 @@
       <c r="B185" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C185" s="9">
+      <c r="C185" s="10">
         <v>20.7</v>
       </c>
-      <c r="E185" s="11"/>
+      <c r="E185" s="7"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
@@ -4620,10 +4621,10 @@
       <c r="B186" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C186" s="8">
+      <c r="C186" s="9">
         <v>15.3</v>
       </c>
-      <c r="E186" s="11"/>
+      <c r="E186" s="7"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
@@ -4632,10 +4633,10 @@
       <c r="B187" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C187" s="9">
+      <c r="C187" s="10">
         <v>128.46</v>
       </c>
-      <c r="E187" s="11"/>
+      <c r="E187" s="7"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
@@ -4644,10 +4645,10 @@
       <c r="B188" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C188" s="8">
+      <c r="C188" s="9">
         <v>39.159999999999997</v>
       </c>
-      <c r="E188" s="11"/>
+      <c r="E188" s="7"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
@@ -4656,10 +4657,10 @@
       <c r="B189" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C189" s="9">
+      <c r="C189" s="10">
         <v>16.21</v>
       </c>
-      <c r="E189" s="11"/>
+      <c r="E189" s="7"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
@@ -4668,10 +4669,10 @@
       <c r="B190" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C190" s="8">
+      <c r="C190" s="9">
         <v>7.97</v>
       </c>
-      <c r="E190" s="11"/>
+      <c r="E190" s="7"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
@@ -4680,10 +4681,10 @@
       <c r="B191" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C191" s="9">
+      <c r="C191" s="10">
         <v>34.979999999999997</v>
       </c>
-      <c r="E191" s="11"/>
+      <c r="E191" s="7"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
@@ -4692,10 +4693,10 @@
       <c r="B192" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C192" s="8">
+      <c r="C192" s="9">
         <v>73.06</v>
       </c>
-      <c r="E192" s="11"/>
+      <c r="E192" s="7"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
@@ -4704,10 +4705,10 @@
       <c r="B193" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C193" s="9">
+      <c r="C193" s="10">
         <v>35.46</v>
       </c>
-      <c r="E193" s="11"/>
+      <c r="E193" s="7"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
@@ -4716,10 +4717,10 @@
       <c r="B194" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C194" s="8">
+      <c r="C194" s="9">
         <v>2.69</v>
       </c>
-      <c r="E194" s="11"/>
+      <c r="E194" s="7"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
@@ -4728,10 +4729,10 @@
       <c r="B195" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C195" s="9">
+      <c r="C195" s="10">
         <v>4.25</v>
       </c>
-      <c r="E195" s="11"/>
+      <c r="E195" s="7"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
@@ -4740,10 +4741,10 @@
       <c r="B196" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C196" s="8">
+      <c r="C196" s="9">
         <v>2.69</v>
       </c>
-      <c r="E196" s="11"/>
+      <c r="E196" s="7"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
@@ -4752,10 +4753,10 @@
       <c r="B197" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C197" s="9">
+      <c r="C197" s="10">
         <v>7.1</v>
       </c>
-      <c r="E197" s="11"/>
+      <c r="E197" s="7"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
@@ -4764,10 +4765,10 @@
       <c r="B198" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C198" s="8">
+      <c r="C198" s="9">
         <v>2.69</v>
       </c>
-      <c r="E198" s="11"/>
+      <c r="E198" s="7"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
@@ -4776,10 +4777,10 @@
       <c r="B199" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C199" s="9">
+      <c r="C199" s="10">
         <v>2.3199999999999998</v>
       </c>
-      <c r="E199" s="11"/>
+      <c r="E199" s="7"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
@@ -4788,10 +4789,10 @@
       <c r="B200" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C200" s="8">
+      <c r="C200" s="9">
         <v>4.25</v>
       </c>
-      <c r="E200" s="11"/>
+      <c r="E200" s="7"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
@@ -4800,10 +4801,10 @@
       <c r="B201" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C201" s="9">
+      <c r="C201" s="10">
         <v>3.64</v>
       </c>
-      <c r="E201" s="11"/>
+      <c r="E201" s="7"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
@@ -4812,10 +4813,10 @@
       <c r="B202" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C202" s="8">
+      <c r="C202" s="9">
         <v>3.43</v>
       </c>
-      <c r="E202" s="11"/>
+      <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
@@ -4824,10 +4825,10 @@
       <c r="B203" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C203" s="9">
+      <c r="C203" s="10">
         <v>3.07</v>
       </c>
-      <c r="E203" s="11"/>
+      <c r="E203" s="7"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
@@ -4836,10 +4837,10 @@
       <c r="B204" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C204" s="8">
+      <c r="C204" s="9">
         <v>9.86</v>
       </c>
-      <c r="E204" s="11"/>
+      <c r="E204" s="7"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
@@ -4848,10 +4849,10 @@
       <c r="B205" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C205" s="9">
+      <c r="C205" s="10">
         <v>16.77</v>
       </c>
-      <c r="E205" s="11"/>
+      <c r="E205" s="7"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
@@ -4860,10 +4861,10 @@
       <c r="B206" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C206" s="8">
+      <c r="C206" s="9">
         <v>10.52</v>
       </c>
-      <c r="E206" s="11"/>
+      <c r="E206" s="7"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
@@ -4872,10 +4873,10 @@
       <c r="B207" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C207" s="9">
+      <c r="C207" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E207" s="11"/>
+      <c r="E207" s="7"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
@@ -4884,10 +4885,10 @@
       <c r="B208" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C208" s="8">
+      <c r="C208" s="9">
         <v>2</v>
       </c>
-      <c r="E208" s="11"/>
+      <c r="E208" s="7"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
@@ -4896,10 +4897,10 @@
       <c r="B209" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C209" s="9">
+      <c r="C209" s="10">
         <v>7.66</v>
       </c>
-      <c r="E209" s="11"/>
+      <c r="E209" s="7"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
@@ -4908,10 +4909,10 @@
       <c r="B210" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C210" s="8">
+      <c r="C210" s="9">
         <v>7.66</v>
       </c>
-      <c r="E210" s="11"/>
+      <c r="E210" s="7"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
@@ -4920,10 +4921,10 @@
       <c r="B211" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C211" s="9">
+      <c r="C211" s="10">
         <v>14.92</v>
       </c>
-      <c r="E211" s="11"/>
+      <c r="E211" s="7"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
@@ -4932,10 +4933,10 @@
       <c r="B212" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C212" s="8">
+      <c r="C212" s="9">
         <v>33.869999999999997</v>
       </c>
-      <c r="E212" s="11"/>
+      <c r="E212" s="7"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
@@ -4944,10 +4945,10 @@
       <c r="B213" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C213" s="9">
+      <c r="C213" s="10">
         <v>4.13</v>
       </c>
-      <c r="E213" s="11"/>
+      <c r="E213" s="7"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
@@ -4956,10 +4957,10 @@
       <c r="B214" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C214" s="8">
+      <c r="C214" s="9">
         <v>42.99</v>
       </c>
-      <c r="E214" s="11"/>
+      <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
@@ -4968,10 +4969,10 @@
       <c r="B215" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C215" s="9">
+      <c r="C215" s="10">
         <v>38.51</v>
       </c>
-      <c r="E215" s="11"/>
+      <c r="E215" s="7"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
@@ -4980,10 +4981,10 @@
       <c r="B216" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C216" s="8">
+      <c r="C216" s="9">
         <v>55.34</v>
       </c>
-      <c r="E216" s="11"/>
+      <c r="E216" s="7"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
@@ -4992,10 +4993,10 @@
       <c r="B217" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C217" s="9">
+      <c r="C217" s="10">
         <v>44.42</v>
       </c>
-      <c r="E217" s="11"/>
+      <c r="E217" s="7"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
@@ -5004,10 +5005,10 @@
       <c r="B218" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C218" s="8">
+      <c r="C218" s="9">
         <v>69.5</v>
       </c>
-      <c r="E218" s="11"/>
+      <c r="E218" s="7"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
@@ -5016,10 +5017,10 @@
       <c r="B219" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C219" s="9">
+      <c r="C219" s="10">
         <v>103.04</v>
       </c>
-      <c r="E219" s="11"/>
+      <c r="E219" s="7"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
@@ -5028,10 +5029,10 @@
       <c r="B220" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C220" s="8">
+      <c r="C220" s="9">
         <v>48.2</v>
       </c>
-      <c r="E220" s="11"/>
+      <c r="E220" s="7"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
@@ -5040,10 +5041,10 @@
       <c r="B221" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C221" s="9">
+      <c r="C221" s="10">
         <v>60.68</v>
       </c>
-      <c r="E221" s="11"/>
+      <c r="E221" s="7"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
@@ -5052,10 +5053,10 @@
       <c r="B222" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C222" s="8">
+      <c r="C222" s="9">
         <v>173.52</v>
       </c>
-      <c r="E222" s="11"/>
+      <c r="E222" s="7"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
@@ -5064,10 +5065,10 @@
       <c r="B223" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C223" s="9">
+      <c r="C223" s="10">
         <v>681.6</v>
       </c>
-      <c r="E223" s="11"/>
+      <c r="E223" s="7"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
@@ -5076,10 +5077,10 @@
       <c r="B224" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C224" s="8">
+      <c r="C224" s="9">
         <v>29</v>
       </c>
-      <c r="E224" s="11"/>
+      <c r="E224" s="7"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
@@ -5088,10 +5089,10 @@
       <c r="B225" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C225" s="9">
+      <c r="C225" s="10">
         <v>61</v>
       </c>
-      <c r="E225" s="11"/>
+      <c r="E225" s="7"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
@@ -5100,10 +5101,10 @@
       <c r="B226" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C226" s="8">
+      <c r="C226" s="9">
         <v>2.62</v>
       </c>
-      <c r="E226" s="11"/>
+      <c r="E226" s="7"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
@@ -5112,10 +5113,10 @@
       <c r="B227" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C227" s="9">
+      <c r="C227" s="10">
         <v>63.28</v>
       </c>
-      <c r="E227" s="11"/>
+      <c r="E227" s="7"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
@@ -5124,10 +5125,10 @@
       <c r="B228" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C228" s="8">
+      <c r="C228" s="9">
         <v>1.35</v>
       </c>
-      <c r="E228" s="11"/>
+      <c r="E228" s="7"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
@@ -5136,10 +5137,10 @@
       <c r="B229" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C229" s="9">
+      <c r="C229" s="10">
         <v>6.02</v>
       </c>
-      <c r="E229" s="11"/>
+      <c r="E229" s="7"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
@@ -5148,10 +5149,10 @@
       <c r="B230" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C230" s="8">
+      <c r="C230" s="9">
         <v>6.43</v>
       </c>
-      <c r="E230" s="11"/>
+      <c r="E230" s="7"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
@@ -5160,10 +5161,10 @@
       <c r="B231" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C231" s="9">
+      <c r="C231" s="10">
         <v>5.8</v>
       </c>
-      <c r="E231" s="11"/>
+      <c r="E231" s="7"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
@@ -5172,10 +5173,10 @@
       <c r="B232" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C232" s="8">
+      <c r="C232" s="9">
         <v>1.97</v>
       </c>
-      <c r="E232" s="11"/>
+      <c r="E232" s="7"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
@@ -5184,10 +5185,10 @@
       <c r="B233" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C233" s="9">
+      <c r="C233" s="10">
         <v>1.57</v>
       </c>
-      <c r="E233" s="11"/>
+      <c r="E233" s="7"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
@@ -5196,10 +5197,10 @@
       <c r="B234" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C234" s="8">
+      <c r="C234" s="9">
         <v>73.239999999999995</v>
       </c>
-      <c r="E234" s="11"/>
+      <c r="E234" s="7"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
@@ -5208,10 +5209,10 @@
       <c r="B235" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C235" s="9">
+      <c r="C235" s="10">
         <v>1.35</v>
       </c>
-      <c r="E235" s="11"/>
+      <c r="E235" s="7"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
@@ -5220,10 +5221,10 @@
       <c r="B236" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C236" s="8">
+      <c r="C236" s="9">
         <v>1.35</v>
       </c>
-      <c r="E236" s="11"/>
+      <c r="E236" s="7"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
@@ -5232,10 +5233,10 @@
       <c r="B237" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C237" s="9">
+      <c r="C237" s="10">
         <v>1.35</v>
       </c>
-      <c r="E237" s="11"/>
+      <c r="E237" s="7"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
@@ -5244,10 +5245,10 @@
       <c r="B238" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C238" s="8">
+      <c r="C238" s="9">
         <v>1.56</v>
       </c>
-      <c r="E238" s="11"/>
+      <c r="E238" s="7"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
@@ -5256,10 +5257,10 @@
       <c r="B239" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C239" s="9">
+      <c r="C239" s="10">
         <v>1.88</v>
       </c>
-      <c r="E239" s="11"/>
+      <c r="E239" s="7"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
@@ -5268,10 +5269,10 @@
       <c r="B240" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C240" s="8">
+      <c r="C240" s="9">
         <v>8.6</v>
       </c>
-      <c r="E240" s="11"/>
+      <c r="E240" s="7"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
@@ -5280,10 +5281,10 @@
       <c r="B241" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C241" s="9">
+      <c r="C241" s="10">
         <v>2.54</v>
       </c>
-      <c r="E241" s="11"/>
+      <c r="E241" s="7"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
@@ -5292,10 +5293,10 @@
       <c r="B242" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C242" s="8">
+      <c r="C242" s="9">
         <v>2.5299999999999998</v>
       </c>
-      <c r="E242" s="11"/>
+      <c r="E242" s="7"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
@@ -5304,10 +5305,10 @@
       <c r="B243" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C243" s="9">
+      <c r="C243" s="10">
         <v>2.5299999999999998</v>
       </c>
-      <c r="E243" s="11"/>
+      <c r="E243" s="7"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
@@ -5316,10 +5317,10 @@
       <c r="B244" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C244" s="8">
+      <c r="C244" s="9">
         <v>8.14</v>
       </c>
-      <c r="E244" s="11"/>
+      <c r="E244" s="7"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
@@ -5328,10 +5329,10 @@
       <c r="B245" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C245" s="9">
+      <c r="C245" s="10">
         <v>10.54</v>
       </c>
-      <c r="E245" s="11"/>
+      <c r="E245" s="7"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
@@ -5340,10 +5341,10 @@
       <c r="B246" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C246" s="8">
+      <c r="C246" s="9">
         <v>8.44</v>
       </c>
-      <c r="E246" s="11"/>
+      <c r="E246" s="7"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
@@ -5352,10 +5353,10 @@
       <c r="B247" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C247" s="9">
+      <c r="C247" s="10">
         <v>6.6</v>
       </c>
-      <c r="E247" s="11"/>
+      <c r="E247" s="7"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
@@ -5364,10 +5365,10 @@
       <c r="B248" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C248" s="8">
+      <c r="C248" s="9">
         <v>3.92</v>
       </c>
-      <c r="E248" s="11"/>
+      <c r="E248" s="7"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
@@ -5376,10 +5377,10 @@
       <c r="B249" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C249" s="9">
+      <c r="C249" s="10">
         <v>5.42</v>
       </c>
-      <c r="E249" s="11"/>
+      <c r="E249" s="7"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
@@ -5388,10 +5389,10 @@
       <c r="B250" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C250" s="8">
+      <c r="C250" s="9">
         <v>1.8</v>
       </c>
-      <c r="E250" s="11"/>
+      <c r="E250" s="7"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
@@ -5400,10 +5401,10 @@
       <c r="B251" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C251" s="9">
+      <c r="C251" s="10">
         <v>23.94</v>
       </c>
-      <c r="E251" s="11"/>
+      <c r="E251" s="7"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
@@ -5412,10 +5413,10 @@
       <c r="B252" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C252" s="8">
+      <c r="C252" s="9">
         <v>3.8</v>
       </c>
-      <c r="E252" s="11"/>
+      <c r="E252" s="7"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
@@ -5424,10 +5425,10 @@
       <c r="B253" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C253" s="9">
+      <c r="C253" s="10">
         <v>6.35</v>
       </c>
-      <c r="E253" s="11"/>
+      <c r="E253" s="7"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
@@ -5436,10 +5437,10 @@
       <c r="B254" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C254" s="8">
+      <c r="C254" s="9">
         <v>1.7</v>
       </c>
-      <c r="E254" s="11"/>
+      <c r="E254" s="7"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
@@ -5448,10 +5449,10 @@
       <c r="B255" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C255" s="9">
+      <c r="C255" s="10">
         <v>2.4300000000000002</v>
       </c>
-      <c r="E255" s="11"/>
+      <c r="E255" s="7"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
@@ -5460,10 +5461,10 @@
       <c r="B256" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C256" s="8">
+      <c r="C256" s="9">
         <v>91.16</v>
       </c>
-      <c r="E256" s="11"/>
+      <c r="E256" s="7"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
@@ -5472,10 +5473,10 @@
       <c r="B257" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C257" s="9">
+      <c r="C257" s="10">
         <v>3.82</v>
       </c>
-      <c r="E257" s="11"/>
+      <c r="E257" s="7"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
@@ -5484,10 +5485,10 @@
       <c r="B258" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C258" s="8">
+      <c r="C258" s="9">
         <v>10.48</v>
       </c>
-      <c r="E258" s="11"/>
+      <c r="E258" s="7"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
@@ -5496,10 +5497,10 @@
       <c r="B259" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C259" s="9">
+      <c r="C259" s="10">
         <v>3.15</v>
       </c>
-      <c r="E259" s="11"/>
+      <c r="E259" s="7"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
@@ -5508,10 +5509,10 @@
       <c r="B260" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C260" s="8">
+      <c r="C260" s="9">
         <v>3.06</v>
       </c>
-      <c r="E260" s="11"/>
+      <c r="E260" s="7"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
@@ -5520,10 +5521,10 @@
       <c r="B261" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C261" s="9">
+      <c r="C261" s="10">
         <v>75.760000000000005</v>
       </c>
-      <c r="E261" s="11"/>
+      <c r="E261" s="7"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
@@ -5532,10 +5533,10 @@
       <c r="B262" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C262" s="8">
+      <c r="C262" s="9">
         <v>43.79</v>
       </c>
-      <c r="E262" s="11"/>
+      <c r="E262" s="7"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
@@ -5544,10 +5545,10 @@
       <c r="B263" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="C263" s="9">
+      <c r="C263" s="10">
         <v>5.46</v>
       </c>
-      <c r="E263" s="11"/>
+      <c r="E263" s="7"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
@@ -5556,10 +5557,10 @@
       <c r="B264" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C264" s="8">
+      <c r="C264" s="9">
         <v>8.06</v>
       </c>
-      <c r="E264" s="11"/>
+      <c r="E264" s="7"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
@@ -5568,10 +5569,10 @@
       <c r="B265" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C265" s="9">
+      <c r="C265" s="10">
         <v>4.24</v>
       </c>
-      <c r="E265" s="11"/>
+      <c r="E265" s="7"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
@@ -5580,10 +5581,10 @@
       <c r="B266" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C266" s="8">
+      <c r="C266" s="9">
         <v>11.04</v>
       </c>
-      <c r="E266" s="11"/>
+      <c r="E266" s="7"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
@@ -5592,10 +5593,10 @@
       <c r="B267" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C267" s="9">
+      <c r="C267" s="10">
         <v>1.81</v>
       </c>
-      <c r="E267" s="11"/>
+      <c r="E267" s="7"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
@@ -5604,10 +5605,10 @@
       <c r="B268" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C268" s="8">
+      <c r="C268" s="9">
         <v>5.73</v>
       </c>
-      <c r="E268" s="11"/>
+      <c r="E268" s="7"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
@@ -5616,10 +5617,10 @@
       <c r="B269" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="C269" s="9">
+      <c r="C269" s="10">
         <v>5.7</v>
       </c>
-      <c r="E269" s="11"/>
+      <c r="E269" s="7"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
@@ -5628,10 +5629,10 @@
       <c r="B270" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C270" s="8">
+      <c r="C270" s="9">
         <v>3.09</v>
       </c>
-      <c r="E270" s="11"/>
+      <c r="E270" s="7"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
@@ -5640,10 +5641,10 @@
       <c r="B271" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C271" s="9">
+      <c r="C271" s="10">
         <v>7.4</v>
       </c>
-      <c r="E271" s="11"/>
+      <c r="E271" s="7"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
@@ -5652,10 +5653,10 @@
       <c r="B272" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="C272" s="8">
+      <c r="C272" s="9">
         <v>4.8600000000000003</v>
       </c>
-      <c r="E272" s="11"/>
+      <c r="E272" s="7"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
@@ -5664,10 +5665,10 @@
       <c r="B273" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C273" s="9">
+      <c r="C273" s="10">
         <v>9.82</v>
       </c>
-      <c r="E273" s="11"/>
+      <c r="E273" s="7"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
@@ -5676,10 +5677,10 @@
       <c r="B274" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C274" s="8">
+      <c r="C274" s="9">
         <v>29.5</v>
       </c>
-      <c r="E274" s="11"/>
+      <c r="E274" s="7"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
@@ -5688,10 +5689,10 @@
       <c r="B275" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C275" s="9">
+      <c r="C275" s="10">
         <v>5</v>
       </c>
-      <c r="E275" s="11"/>
+      <c r="E275" s="7"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
@@ -5700,10 +5701,10 @@
       <c r="B276" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C276" s="8">
+      <c r="C276" s="9">
         <v>20.8</v>
       </c>
-      <c r="E276" s="11"/>
+      <c r="E276" s="7"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
@@ -5712,10 +5713,10 @@
       <c r="B277" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="C277" s="9">
+      <c r="C277" s="10">
         <v>59.8</v>
       </c>
-      <c r="E277" s="11"/>
+      <c r="E277" s="7"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
@@ -5724,10 +5725,10 @@
       <c r="B278" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C278" s="8">
+      <c r="C278" s="9">
         <v>3.43</v>
       </c>
-      <c r="E278" s="11"/>
+      <c r="E278" s="7"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
@@ -5736,10 +5737,10 @@
       <c r="B279" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C279" s="9">
+      <c r="C279" s="10">
         <v>3.58</v>
       </c>
-      <c r="E279" s="11"/>
+      <c r="E279" s="7"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
@@ -5748,10 +5749,10 @@
       <c r="B280" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="C280" s="8">
+      <c r="C280" s="9">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E280" s="11"/>
+      <c r="E280" s="7"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
@@ -5760,10 +5761,10 @@
       <c r="B281" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C281" s="9">
+      <c r="C281" s="10">
         <v>4.68</v>
       </c>
-      <c r="E281" s="11"/>
+      <c r="E281" s="7"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
@@ -5772,10 +5773,10 @@
       <c r="B282" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="C282" s="8">
+      <c r="C282" s="9">
         <v>52.12</v>
       </c>
-      <c r="E282" s="11"/>
+      <c r="E282" s="7"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
@@ -5784,10 +5785,10 @@
       <c r="B283" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="C283" s="9">
+      <c r="C283" s="10">
         <v>57.28</v>
       </c>
-      <c r="E283" s="11"/>
+      <c r="E283" s="7"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
@@ -5796,10 +5797,10 @@
       <c r="B284" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C284" s="8">
+      <c r="C284" s="9">
         <v>58.48</v>
       </c>
-      <c r="E284" s="11"/>
+      <c r="E284" s="7"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
@@ -5808,10 +5809,10 @@
       <c r="B285" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C285" s="9">
+      <c r="C285" s="10">
         <v>30</v>
       </c>
-      <c r="E285" s="11"/>
+      <c r="E285" s="7"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
@@ -5820,10 +5821,10 @@
       <c r="B286" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="C286" s="8">
+      <c r="C286" s="9">
         <v>26.4</v>
       </c>
-      <c r="E286" s="11"/>
+      <c r="E286" s="7"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
@@ -5832,10 +5833,10 @@
       <c r="B287" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C287" s="9">
+      <c r="C287" s="10">
         <v>20.85</v>
       </c>
-      <c r="E287" s="11"/>
+      <c r="E287" s="7"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
@@ -5844,10 +5845,10 @@
       <c r="B288" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C288" s="8">
+      <c r="C288" s="9">
         <v>29.5</v>
       </c>
-      <c r="E288" s="11"/>
+      <c r="E288" s="7"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
@@ -5856,10 +5857,10 @@
       <c r="B289" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C289" s="9">
+      <c r="C289" s="10">
         <v>29.72</v>
       </c>
-      <c r="E289" s="11"/>
+      <c r="E289" s="7"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
@@ -5868,10 +5869,10 @@
       <c r="B290" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C290" s="8">
+      <c r="C290" s="9">
         <v>16.38</v>
       </c>
-      <c r="E290" s="11"/>
+      <c r="E290" s="7"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
@@ -5880,10 +5881,10 @@
       <c r="B291" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="C291" s="9">
+      <c r="C291" s="10">
         <v>56.36</v>
       </c>
-      <c r="E291" s="11"/>
+      <c r="E291" s="7"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
@@ -5892,10 +5893,10 @@
       <c r="B292" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C292" s="8">
+      <c r="C292" s="9">
         <v>11.73</v>
       </c>
-      <c r="E292" s="11"/>
+      <c r="E292" s="7"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
@@ -5904,10 +5905,10 @@
       <c r="B293" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C293" s="9">
+      <c r="C293" s="10">
         <v>2.65</v>
       </c>
-      <c r="E293" s="11"/>
+      <c r="E293" s="7"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
@@ -5916,10 +5917,10 @@
       <c r="B294" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="C294" s="8">
+      <c r="C294" s="9">
         <v>2.64</v>
       </c>
-      <c r="E294" s="11"/>
+      <c r="E294" s="7"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
@@ -5928,10 +5929,10 @@
       <c r="B295" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C295" s="9">
+      <c r="C295" s="10">
         <v>2.64</v>
       </c>
-      <c r="E295" s="11"/>
+      <c r="E295" s="7"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
@@ -5940,10 +5941,10 @@
       <c r="B296" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="C296" s="8">
+      <c r="C296" s="9">
         <v>6.82</v>
       </c>
-      <c r="E296" s="11"/>
+      <c r="E296" s="7"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
@@ -5952,10 +5953,10 @@
       <c r="B297" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C297" s="9">
+      <c r="C297" s="10">
         <v>29.74</v>
       </c>
-      <c r="E297" s="11"/>
+      <c r="E297" s="7"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
@@ -5964,10 +5965,10 @@
       <c r="B298" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="C298" s="8">
+      <c r="C298" s="9">
         <v>9.58</v>
       </c>
-      <c r="E298" s="11"/>
+      <c r="E298" s="7"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
@@ -5976,10 +5977,10 @@
       <c r="B299" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="C299" s="9">
+      <c r="C299" s="10">
         <v>11.4</v>
       </c>
-      <c r="E299" s="11"/>
+      <c r="E299" s="7"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
@@ -5988,10 +5989,10 @@
       <c r="B300" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="C300" s="8">
+      <c r="C300" s="9">
         <v>45.6</v>
       </c>
-      <c r="E300" s="11"/>
+      <c r="E300" s="7"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
@@ -6000,10 +6001,10 @@
       <c r="B301" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="C301" s="9">
+      <c r="C301" s="10">
         <v>70.56</v>
       </c>
-      <c r="E301" s="11"/>
+      <c r="E301" s="7"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
@@ -6012,10 +6013,10 @@
       <c r="B302" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C302" s="8">
+      <c r="C302" s="9">
         <v>68.12</v>
       </c>
-      <c r="E302" s="11"/>
+      <c r="E302" s="7"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
@@ -6024,10 +6025,10 @@
       <c r="B303" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C303" s="9">
+      <c r="C303" s="10">
         <v>68.739999999999995</v>
       </c>
-      <c r="E303" s="11"/>
+      <c r="E303" s="7"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
@@ -6036,10 +6037,10 @@
       <c r="B304" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="C304" s="8">
+      <c r="C304" s="9">
         <v>3.68</v>
       </c>
-      <c r="E304" s="11"/>
+      <c r="E304" s="7"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
@@ -6048,10 +6049,10 @@
       <c r="B305" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="C305" s="9">
+      <c r="C305" s="10">
         <v>73.34</v>
       </c>
-      <c r="E305" s="11"/>
+      <c r="E305" s="7"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
@@ -6060,10 +6061,10 @@
       <c r="B306" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C306" s="8">
+      <c r="C306" s="9">
         <v>101.46</v>
       </c>
-      <c r="E306" s="11"/>
+      <c r="E306" s="7"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
@@ -6072,10 +6073,10 @@
       <c r="B307" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="C307" s="9">
+      <c r="C307" s="10">
         <v>167.7</v>
       </c>
-      <c r="E307" s="11"/>
+      <c r="E307" s="7"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
@@ -6084,10 +6085,10 @@
       <c r="B308" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="C308" s="8">
+      <c r="C308" s="9">
         <v>147.58000000000001</v>
       </c>
-      <c r="E308" s="11"/>
+      <c r="E308" s="7"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
@@ -6096,10 +6097,10 @@
       <c r="B309" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="C309" s="9">
+      <c r="C309" s="10">
         <v>22.52</v>
       </c>
-      <c r="E309" s="11"/>
+      <c r="E309" s="7"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
@@ -6108,10 +6109,10 @@
       <c r="B310" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C310" s="8">
+      <c r="C310" s="9">
         <v>232.86</v>
       </c>
-      <c r="E310" s="11"/>
+      <c r="E310" s="7"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
@@ -6120,10 +6121,10 @@
       <c r="B311" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="C311" s="9">
+      <c r="C311" s="10">
         <v>58.85</v>
       </c>
-      <c r="E311" s="11"/>
+      <c r="E311" s="7"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
@@ -6132,10 +6133,10 @@
       <c r="B312" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="C312" s="8">
+      <c r="C312" s="9">
         <v>56.36</v>
       </c>
-      <c r="E312" s="11"/>
+      <c r="E312" s="7"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
@@ -6144,10 +6145,10 @@
       <c r="B313" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="C313" s="9">
+      <c r="C313" s="10">
         <v>2</v>
       </c>
-      <c r="E313" s="11"/>
+      <c r="E313" s="7"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
@@ -6156,10 +6157,10 @@
       <c r="B314" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="C314" s="8">
+      <c r="C314" s="9">
         <v>15.72</v>
       </c>
-      <c r="E314" s="11"/>
+      <c r="E314" s="7"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
@@ -6168,10 +6169,10 @@
       <c r="B315" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="C315" s="9">
+      <c r="C315" s="10">
         <v>2.61</v>
       </c>
-      <c r="E315" s="11"/>
+      <c r="E315" s="7"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
@@ -6180,10 +6181,10 @@
       <c r="B316" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="C316" s="8">
+      <c r="C316" s="9">
         <v>1.57</v>
       </c>
-      <c r="E316" s="11"/>
+      <c r="E316" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PRUEBA.xlsx
+++ b/PRUEBA.xlsx
@@ -37089,8 +37089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58CBEE2-0F56-46A3-91CD-5D73199C16A0}">
   <dimension ref="A1:E795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A769" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PRUEBA.xlsx
+++ b/PRUEBA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9c7db393410a0e1/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{B48EAC58-9B7D-4E80-8899-08CE2929E675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC7F081-C019-4729-81B9-682D67947C8C}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{B48EAC58-9B7D-4E80-8899-08CE2929E675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF1D05B3-EC7F-4274-9ACB-FB1150607CE0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89B8ABE8-3403-4683-9B1D-5A15CBE66AC0}"/>
   </bookViews>
@@ -37089,8 +37089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58CBEE2-0F56-46A3-91CD-5D73199C16A0}">
   <dimension ref="A1:E795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+    <sheetView tabSelected="1" topLeftCell="A724" workbookViewId="0">
+      <selection activeCell="C755" sqref="C755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37665,9 +37665,8 @@
       <c r="B43" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="11" t="e">
-        <f>+VLOOKUP([1]!Tabla13[[#This Row],[CÓDIGO]],'[1]Exit ERP'!$A$2:$L$899,5,FALSE)</f>
-        <v>#N/A</v>
+      <c r="C43" s="11">
+        <v>0.01</v>
       </c>
       <c r="E43" s="7"/>
     </row>
@@ -38420,8 +38419,7 @@
         <v>192</v>
       </c>
       <c r="C101" s="11">
-        <f>+VLOOKUP([1]!Tabla13[[#This Row],[CÓDIGO]],'[1]Exit ERP'!$A$2:$L$899,5,FALSE)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E101" s="7"/>
     </row>
@@ -41360,8 +41358,7 @@
         <v>723</v>
       </c>
       <c r="C328" s="10">
-        <f>+VLOOKUP([1]!Tabla13[[#This Row],[CÓDIGO]],'[1]Exit ERP'!$A$2:$L$899,5,FALSE)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -45740,8 +45737,7 @@
         <v>1452</v>
       </c>
       <c r="C693" s="11">
-        <f>+VLOOKUP([1]!Tabla13[[#This Row],[CÓDIGO]],'[1]Exit ERP'!$A$2:$L$899,5,FALSE)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
@@ -45764,8 +45760,7 @@
         <v>1456</v>
       </c>
       <c r="C695" s="11">
-        <f>+VLOOKUP([1]!Tabla13[[#This Row],[CÓDIGO]],'[1]Exit ERP'!$A$2:$L$899,5,FALSE)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
@@ -45788,8 +45783,7 @@
         <v>1460</v>
       </c>
       <c r="C697" s="11">
-        <f>+VLOOKUP([1]!Tabla13[[#This Row],[CÓDIGO]],'[1]Exit ERP'!$A$2:$L$899,5,FALSE)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
@@ -45800,8 +45794,7 @@
         <v>1462</v>
       </c>
       <c r="C698" s="10">
-        <f>+VLOOKUP([1]!Tabla13[[#This Row],[CÓDIGO]],'[1]Exit ERP'!$A$2:$L$899,5,FALSE)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
@@ -46472,8 +46465,7 @@
         <v>1548</v>
       </c>
       <c r="C754" s="10">
-        <f>+VLOOKUP([1]!Tabla13[[#This Row],[CÓDIGO]],'[1]Exit ERP'!$A$2:$L$899,5,FALSE)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
